--- a/media/predicted_drugs.xlsx
+++ b/media/predicted_drugs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="395">
   <si>
     <t>RNA Sequence</t>
   </si>
@@ -52,6 +52,372 @@
     <t>DB00619</t>
   </si>
   <si>
+    <t>DB00526</t>
+  </si>
+  <si>
+    <t>DB09063</t>
+  </si>
+  <si>
+    <t>DB00398</t>
+  </si>
+  <si>
+    <t>DB00675</t>
+  </si>
+  <si>
+    <t>DB00317</t>
+  </si>
+  <si>
+    <t>DB00661</t>
+  </si>
+  <si>
+    <t>DB01248</t>
+  </si>
+  <si>
+    <t>DB00853</t>
+  </si>
+  <si>
+    <t>DB08881</t>
+  </si>
+  <si>
+    <t>DB08911</t>
+  </si>
+  <si>
+    <t>DB00541</t>
+  </si>
+  <si>
+    <t>DB00773</t>
+  </si>
+  <si>
+    <t>DB08912</t>
+  </si>
+  <si>
+    <t>DB00361</t>
+  </si>
+  <si>
+    <t>DB01268</t>
+  </si>
+  <si>
+    <t>DB00563</t>
+  </si>
+  <si>
+    <t>DB00947</t>
+  </si>
+  <si>
+    <t>DB00531</t>
+  </si>
+  <si>
+    <t>DB09330</t>
+  </si>
+  <si>
+    <t>DB00530</t>
+  </si>
+  <si>
+    <t>DB06999</t>
+  </si>
+  <si>
+    <t>DB00715</t>
+  </si>
+  <si>
+    <t>DB01200</t>
+  </si>
+  <si>
+    <t>DB01204</t>
+  </si>
+  <si>
+    <t>DB00188</t>
+  </si>
+  <si>
+    <t>DB08901</t>
+  </si>
+  <si>
+    <t>DB00694</t>
+  </si>
+  <si>
+    <t>DB09073</t>
+  </si>
+  <si>
+    <t>DB00958</t>
+  </si>
+  <si>
+    <t>DB00445</t>
+  </si>
+  <si>
+    <t>DB00305</t>
+  </si>
+  <si>
+    <t>DB12340</t>
+  </si>
+  <si>
+    <t>DB12385</t>
+  </si>
+  <si>
+    <t>DB11672</t>
+  </si>
+  <si>
+    <t>DB08865</t>
+  </si>
+  <si>
+    <t>DB01030</t>
+  </si>
+  <si>
+    <t>DB01234</t>
+  </si>
+  <si>
+    <t>DB00635</t>
+  </si>
+  <si>
+    <t>DB00928</t>
+  </si>
+  <si>
+    <t>DB09074</t>
+  </si>
+  <si>
+    <t>DB09079</t>
+  </si>
+  <si>
+    <t>DB06603</t>
+  </si>
+  <si>
+    <t>DB08896</t>
+  </si>
+  <si>
+    <t>DB01101</t>
+  </si>
+  <si>
+    <t>DB08877</t>
+  </si>
+  <si>
+    <t>DB00987</t>
+  </si>
+  <si>
+    <t>DB00331</t>
+  </si>
+  <si>
+    <t>DB02546</t>
+  </si>
+  <si>
+    <t>DB00860</t>
+  </si>
+  <si>
+    <t>DB11616</t>
+  </si>
+  <si>
+    <t>DB01254</t>
+  </si>
+  <si>
+    <t>DB00877</t>
+  </si>
+  <si>
+    <t>DB12180</t>
+  </si>
+  <si>
+    <t>DB01262</t>
+  </si>
+  <si>
+    <t>DB01259</t>
+  </si>
+  <si>
+    <t>DB17023</t>
+  </si>
+  <si>
+    <t>DB08899</t>
+  </si>
+  <si>
+    <t>DB12130</t>
+  </si>
+  <si>
+    <t>DB06589</t>
+  </si>
+  <si>
+    <t>DB00811</t>
+  </si>
+  <si>
+    <t>DB00818</t>
+  </si>
+  <si>
+    <t>DB00444</t>
+  </si>
+  <si>
+    <t>DB00642</t>
+  </si>
+  <si>
+    <t>DB01042</t>
+  </si>
+  <si>
+    <t>DB01236</t>
+  </si>
+  <si>
+    <t>DB06626</t>
+  </si>
+  <si>
+    <t>DB12200</t>
+  </si>
+  <si>
+    <t>DB00762</t>
+  </si>
+  <si>
+    <t>DB01169</t>
+  </si>
+  <si>
+    <t>DB12015</t>
+  </si>
+  <si>
+    <t>DB00570</t>
+  </si>
+  <si>
+    <t>DB05134</t>
+  </si>
+  <si>
+    <t>DB04690</t>
+  </si>
+  <si>
+    <t>DB01217</t>
+  </si>
+  <si>
+    <t>DB00262</t>
+  </si>
+  <si>
+    <t>DB01073</t>
+  </si>
+  <si>
+    <t>DB00959</t>
+  </si>
+  <si>
+    <t>DB01058</t>
+  </si>
+  <si>
+    <t>DB11689</t>
+  </si>
+  <si>
+    <t>DB01006</t>
+  </si>
+  <si>
+    <t>DB11730</t>
+  </si>
+  <si>
+    <t>DB00313</t>
+  </si>
+  <si>
+    <t>DB06287</t>
+  </si>
+  <si>
+    <t>DB04297</t>
+  </si>
+  <si>
+    <t>DB04365</t>
+  </si>
+  <si>
+    <t>DB08916</t>
+  </si>
+  <si>
+    <t>DB00755</t>
+  </si>
+  <si>
+    <t>DB07232</t>
+  </si>
+  <si>
+    <t>DB11091</t>
+  </si>
+  <si>
+    <t>DB06772</t>
+  </si>
+  <si>
+    <t>DB00783</t>
+  </si>
+  <si>
+    <t>DB17039</t>
+  </si>
+  <si>
+    <t>DB00293</t>
+  </si>
+  <si>
+    <t>DB03424</t>
+  </si>
+  <si>
+    <t>DB13063</t>
+  </si>
+  <si>
+    <t>DB00990</t>
+  </si>
+  <si>
+    <t>DB00290</t>
+  </si>
+  <si>
+    <t>DB00252</t>
+  </si>
+  <si>
+    <t>DB00851</t>
+  </si>
+  <si>
+    <t>DB00396</t>
+  </si>
+  <si>
+    <t>DB00758</t>
+  </si>
+  <si>
+    <t>DB04868</t>
+  </si>
+  <si>
+    <t>DB08818</t>
+  </si>
+  <si>
+    <t>DB15110</t>
+  </si>
+  <si>
+    <t>DB00136</t>
+  </si>
+  <si>
+    <t>DB01645</t>
+  </si>
+  <si>
+    <t>DB12027</t>
+  </si>
+  <si>
+    <t>DB12083</t>
+  </si>
+  <si>
+    <t>DB16772</t>
+  </si>
+  <si>
+    <t>DB12116</t>
+  </si>
+  <si>
+    <t>DB04115</t>
+  </si>
+  <si>
+    <t>DB04216</t>
+  </si>
+  <si>
+    <t>DB00641</t>
+  </si>
+  <si>
+    <t>DB05928</t>
+  </si>
+  <si>
+    <t>DB14681</t>
+  </si>
+  <si>
+    <t>DB12093</t>
+  </si>
+  <si>
+    <t>DB09053</t>
+  </si>
+  <si>
+    <t>DB12480</t>
+  </si>
+  <si>
+    <t>DB08871</t>
+  </si>
+  <si>
+    <t>DB02901</t>
+  </si>
+  <si>
+    <t>DB11805</t>
+  </si>
+  <si>
+    <t>DB13689</t>
+  </si>
+  <si>
     <t>COC1=CC=CC2=C1C(=O)C1=C(O)C3=C(C[C@](O)(C[C@@H]3O[C@H]3C[C@H](N)[C@H](O)[C@H](C)O3)C(=O)CO)C(O)=C1C2=O</t>
   </si>
   <si>
@@ -70,6 +436,372 @@
     <t>CN1CCN(CC2=CC=C(C=C2)C(=O)NC2=CC(NC3=NC=CC(=N3)C3=CN=CC=C3)=C(C)C=C2)CC1</t>
   </si>
   <si>
+    <t>[H][N]1([H])[C@@H]2CCCC[C@H]2[N]([H])([H])[Pt]11OC(=O)C(=O)O1</t>
+  </si>
+  <si>
+    <t>CC(C)OC1=C(NC2=NC=C(Cl)C(N2)=NC2=CC=CC=C2S(=O)(=O)C(C)C)C=C(C)C(=C1)C1CCNCC1</t>
+  </si>
+  <si>
+    <t>CNC(=O)C1=NC=CC(OC2=CC=C(NC(=O)NC3=CC(=C(Cl)C=C3)C(F)(F)F)C=C2)=C1</t>
+  </si>
+  <si>
+    <t>CC\C(=C(/C1=CC=CC=C1)C1=CC=C(OCCN(C)C)C=C1)C1=CC=CC=C1</t>
+  </si>
+  <si>
+    <t>COC1=C(OCCCN2CCOCC2)C=C2C(NC3=CC(Cl)=C(F)C=C3)=NC=NC2=C1</t>
+  </si>
+  <si>
+    <t>COC1=C(OC)C=C(CCN(C)CCCC(C#N)(C(C)C)C2=CC(OC)=C(OC)C=C2)C=C1</t>
+  </si>
+  <si>
+    <t>[H][C@@]1(C[C@@]2(O)[C@@H](OC(=O)C3=CC=CC=C3)[C@]3([H])[C@@]4(CO[C@@H]4C[C@H](O)[C@@]3(C)C(=O)[C@H](O)C(=C1C)C2(C)C)OC(C)=O)OC(=O)[C@H](O)[C@@H](NC(=O)OC(C)(C)C)C1=CC=CC=C1</t>
+  </si>
+  <si>
+    <t>CN1N=NC2=C(N=CN2C1=O)C(N)=O</t>
+  </si>
+  <si>
+    <t>CCCS(=O)(=O)NC1=C(F)C(C(=O)C2=CNC3=NC=C(C=C23)C2=CC=C(Cl)C=C2)=C(F)C=C1</t>
+  </si>
+  <si>
+    <t>CN1C(=O)C(C)=C2N(C(=O)N(C3CC3)C(=O)C2=C1NC1=CC=C(I)C=C1F)C1=CC(NC(C)=O)=CC=C1</t>
+  </si>
+  <si>
+    <t>[H][C@@]12N3CC[C@@]11C4=C(C=C(OC)C(=C4)[C@]4(C[C@H]5C[N@](C[C@](O)(CC)C5)CCC5=C4NC4=CC=CC=C54)C(=O)OC)N(C=O)[C@@]1([H])[C@](O)([C@H](OC(C)=O)[C@]2(CC)C=CC3)C(=O)OC</t>
+  </si>
+  <si>
+    <t>[H][C@]12COC(=O)[C@]1([H])[C@H](C1=CC(OC)=C(O)C(OC)=C1)C1=CC3=C(OCO3)C=C1[C@H]2O[C@@H]1O[C@]2([H])CO[C@@H](C)O[C@@]2([H])[C@H](O)[C@H]1O</t>
+  </si>
+  <si>
+    <t>CC(C)(C)C1=NC(=C(S1)C1=NC(N)=NC=C1)C1=C(F)C(NS(=O)(=O)C2=C(F)C=CC=C2F)=CC=C1</t>
+  </si>
+  <si>
+    <t>[H][C@@]12N(C)C3=CC(OC)=C(C=C3[C@@]11CCN3CC=C[C@](CC)([C@@]13[H])[C@@]([H])(OC(C)=O)[C@]2(O)C(=O)OC)[C@]1(C[C@@]2([H])CN(CC(CC)=C2)CC2=C1NC1=CC=CC=C21)C(=O)OC</t>
+  </si>
+  <si>
+    <t>CCN(CC)CCNC(=O)C1=C(C)NC(\C=C2/C(=O)NC3=C2C=C(F)C=C3)=C1C</t>
+  </si>
+  <si>
+    <t>CN(CC1=CN=C2N=C(N)N=C(N)C2=N1)C1=CC=C(C=C1)C(=O)N[C@@H](CCC(O)=O)C(O)=O</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC[C@H](O)[C@@]1(C)CC[C@]1([H])C3=CC=C(O)C=C3C[C@@H](CCCCCCCCCS(=O)CCCC(F)(F)C(F)(F)F)[C@@]21[H]</t>
+  </si>
+  <si>
+    <t>ClCCN(CCCl)P1(=O)NCCCO1</t>
+  </si>
+  <si>
+    <t>COC1=C(NC2=NC=CC(=N2)C2=CN(C)C3=C2C=CC=C3)C=C(NC(=O)C=C)C(=C1)N(C)CCN(C)C</t>
+  </si>
+  <si>
+    <t>COCCOC1=CC2=C(C=C1OCCOC)C(NC1=CC(=CC=C1)C#C)=NC=N2</t>
+  </si>
+  <si>
+    <t>CCCS(=O)(=O)NC1=CC=C(F)C(C(=O)C2=CNC3=C2C=C(Cl)C=N3)=C1F</t>
+  </si>
+  <si>
+    <t>FC1=CC=C(C=C1)[C@@H]1CCNC[C@H]1COC1=CC2=C(OCO2)C=C1</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CCCN1C(=O)[C@H](CC(C)C)N1C(=O)[C@](NC(=O)[C@H]3CN(C)[C@]4([H])CC5=C(Br)NC6=CC=CC(=C56)C4=C3)(O[C@@]21O)C(C)C</t>
+  </si>
+  <si>
+    <t>OCCNCCNC1=CC=C(NCCNCCO)C2=C1C(=O)C1=C(C(O)=CC=C1O)C2=O</t>
+  </si>
+  <si>
+    <t>CC(C)C[C@H](NC(=O)[C@H](CC1=CC=CC=C1)NC(=O)C1=CN=CC=N1)B(O)O</t>
+  </si>
+  <si>
+    <t>CN1CCN(CC2=CC=C(NC(=O)C3=CC(C#CC4=CN=C5C=CC=NN45)=C(C)C=C3)C=C2C(F)(F)F)CC1</t>
+  </si>
+  <si>
+    <t>COC1=CC=CC2=C1C(=O)C1=C(O)C3=C(C[C@](O)(C[C@@H]3O[C@H]3C[C@H](N)[C@H](O)[C@H](C)O3)C(C)=O)C(O)=C1C2=O</t>
+  </si>
+  <si>
+    <t>CC(=O)C1=C(C)C2=CN=C(NC3=NC=C(C=C3)N3CCNCC3)N=C2N(C2CCCC2)C1=O</t>
+  </si>
+  <si>
+    <t>[H][N]([H])([H])[Pt]1(OC(=O)C2(CCC2)C(=O)O1)[N]([H])([H])[H]</t>
+  </si>
+  <si>
+    <t>COC1=CC=CC2=C1C(=O)C1=C(O)C3=C(C[C@](O)(C[C@@H]3O[C@H]3C[C@H](N)[C@@H](O)[C@H](C)O3)C(=O)CO)C(O)=C1C2=O</t>
+  </si>
+  <si>
+    <t>[H][C@]12CN3C4=C([C@@H](COC(N)=O)[C@@]3(OC)[C@@]1([H])N2)C(=O)C(N)=C(C)C4=O</t>
+  </si>
+  <si>
+    <t>[H][C@@](CCN1CCOCC1)(CSC1=CC=CC=C1)NC1=C(C=C(C=C1)S(=O)(=O)NC(=O)C1=CC=C(C=C1)N1CCN(CC2=C(CCC(C)(C)C2)C2=CC=C(Cl)C=C2)CC1)S(=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>CC[C@@]1(O)C(=O)OCC2=C1C=C1N(CC3=C1N=C1C=CC(O)=CC1=C3)C2=O</t>
+  </si>
+  <si>
+    <t>COC1=CC(\C=C\C(=O)CC(=O)\C=C\C2=CC(OC)=C(O)C=C2)=CC=C1O</t>
+  </si>
+  <si>
+    <t>C[C@@H](OC1=CC(=CN=C1N)C1=CN(N=C1)C1CCNCC1)C1=C(Cl)C=CC(F)=C1Cl</t>
+  </si>
+  <si>
+    <t>CC[C@@]1(O)C(=O)OCC2=C1C=C1N(CC3=CC4=C(C=CC(O)=C4CN(C)C)N=C13)C2=O</t>
+  </si>
+  <si>
+    <t>[H][C@@]12C[C@@H](C)[C@](O)(C(=O)CO)[C@@]1(C)C[C@H](O)[C@@]1(F)[C@@]2([H])CCC2=CC(=O)C=C[C@]12C</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC[C@](O)(C(=O)CO)[C@@]1(C)CC(=O)[C@@]1([H])[C@@]2([H])CCC2=CC(=O)C=C[C@]12C</t>
+  </si>
+  <si>
+    <t>NC1=NC(=O)N(C=N1)[C@@H]1O[C@H](CO)[C@@H](O)[C@H]1O</t>
+  </si>
+  <si>
+    <t>FC1=CC=C(CC2=NNC(=O)C3=CC=CC=C23)C=C1C(=O)N1CCN(CC1)C(=O)C1CC1</t>
+  </si>
+  <si>
+    <t>COC(=O)C1=CC=C2C(NC(=O)\C2=C(/NC2=CC=C(C=C2)N(C)C(=O)CN2CCN(C)CC2)C2=CC=CC=C2)=C1</t>
+  </si>
+  <si>
+    <t>CC1=C(CCNCC2=CC=C(\C=C\C(=O)NO)C=C2)C2=CC=CC=C2N1</t>
+  </si>
+  <si>
+    <t>CNC(=O)C1=CC(OC2=CC(F)=C(NC(=O)NC3=CC=C(Cl)C(=C3)C(F)(F)F)C=C2)=CC=N1</t>
+  </si>
+  <si>
+    <t>CCCCCOC(=O)NC1=NC(=O)N(C=C1F)[C@@H]1O[C@H](C)[C@@H](O)[C@H]1O</t>
+  </si>
+  <si>
+    <t>N#CC[C@H](C1CCCC1)N1C=C(C=N1)C1=C2C=CNC2=NC=N1</t>
+  </si>
+  <si>
+    <t>NC1=NC(=O)N(C=C1)[C@@H]1O[C@H](CO)[C@@H](O)[C@@H]1O</t>
+  </si>
+  <si>
+    <t>CN(C)C(=N)NC(N)=N</t>
+  </si>
+  <si>
+    <t>ONC(=O)CCCCCCC(=O)NC1=CC=CC=C1</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC[C@](O)(C(=O)CO)[C@@]1(C)C[C@H](O)[C@@]1([H])[C@@]2([H])CCC2=CC(=O)C=C[C@]12C</t>
+  </si>
+  <si>
+    <t>[H][C@]1(N)C[C@]([H])(O[C@@]2([H])C[C@@](O)(CC3=C(O)C4=C(C(O)=C23)C(=O)C2=C(C=CC=C2OC)C4=O)C(=O)CO)O[C@@]([H])(C)[C@@]1([H])O[C@]1([H])CCCCO1</t>
+  </si>
+  <si>
+    <t>CC1=NC(NC2=NC=C(S2)C(=O)NC2=C(C)C=CC=C2Cl)=CC(=N1)N1CCN(CCO)CC1</t>
+  </si>
+  <si>
+    <t>[H][C@@]1(C[C@@H](C)[C@]2([H])CC(=O)[C@H](C)\C=C(C)\[C@@H](O)[C@@H](OC)C(=O)[C@H](C)C[C@H](C)\C=C\C=C\C=C(C)\[C@H](C[C@]3([H])CC[C@@H](C)[C@@](O)(O3)C(=O)C(=O)N3CCCC[C@@]3([H])C(=O)O2)OC)CC[C@@H](O)[C@@H](C1)OC</t>
+  </si>
+  <si>
+    <t>C[C@H](O)C(=O)N1CCN(CC2=C(C)C3=NC(=NC(N4CCOCC4)=C3S2)C2=CN=C(N)N=C2)CC1</t>
+  </si>
+  <si>
+    <t>NC1=NC(=O)N(C=N1)[C@H]1C[C@H](O)[C@@H](CO)O1</t>
+  </si>
+  <si>
+    <t>CS(=O)(=O)CCNCC1=CC=C(O1)C1=CC2=C(C=C1)N=CN=C2NC1=CC(Cl)=C(OCC2=CC(F)=CC=C2)C=C1</t>
+  </si>
+  <si>
+    <t>CN(C)CC[C@H](CSC1=CC=CC=C1)NC1=CC=C(C=C1[N+]([O-])=O)S(=O)(=O)NC(=O)C1=CC=C(C=C1)N1CCN(CC2=CC=CC=C2C2=CC=C(Cl)C=C2)CC1</t>
+  </si>
+  <si>
+    <t>CNC(=O)C1=C(F)C=C(C=C1)N1C(=S)N(C(=O)C1(C)C)C1=CC=C(C#N)C(=C1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>C[C@H]1OC2=C(N)N=CC(=C2)C2=C(C#N)N(C)N=C2CN(C)C(=O)C2=C1C=C(F)C=C2</t>
+  </si>
+  <si>
+    <t>CN(C1=CC2=NN(C)C(C)=C2C=C1)C1=CC=NC(NC2=CC=C(C)C(=C2)S(N)(=O)=O)=N1</t>
+  </si>
+  <si>
+    <t>NC(=O)C1=NN(C=N1)[C@@H]1O[C@H](CO)[C@@H](O)[C@H]1O</t>
+  </si>
+  <si>
+    <t>CC(C)C1=CC=CC(C(C)C)=C1O</t>
+  </si>
+  <si>
+    <t>[H][C@]12COC(=O)[C@]1([H])[C@H](C1=CC(OC)=C(O)C(OC)=C1)C1=C(C=C3OCOC3=C1)[C@H]2O[C@]1([H])O[C@]2([H])CO[C@H](O[C@@]2([H])[C@H](O)[C@H]1O)C1=CC=CS1</t>
+  </si>
+  <si>
+    <t>NC1=NC(=O)C2=C(NC=C2CCC2=CC=C(C=C2)C(=O)N[C@@H](CCC(O)=O)C(O)=O)N1</t>
+  </si>
+  <si>
+    <t>N[C@@H](CC1=CC=C(C=C1)N(CCCl)CCCl)C(O)=O</t>
+  </si>
+  <si>
+    <t>FCOC(C(F)(F)F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>CNC(=O)C1=C(SC2=CC=C3C(NN=C3\C=C\C3=CC=CC=N3)=C2)C=CC=C1</t>
+  </si>
+  <si>
+    <t>O=C1NC(=O)[C@H]([C@@H]1C1=CNC2=CC=CC=C12)C1=CN2CCCC3=C2C1=CC=C3</t>
+  </si>
+  <si>
+    <t>CCC1=C2CN3C(=CC4=C(COC(=O)[C@]4(O)CC)C3=O)C2=NC2=CC=C(OC(=O)N3CCC(CC3)N3CCCCC3)C=C12</t>
+  </si>
+  <si>
+    <t>O=[As]O[As]=O</t>
+  </si>
+  <si>
+    <t>CC1=C(SC(NC(=O)N2CCC[C@H]2C(N)=O)=N1)C1=CC(=NC=C1)C(C)(C)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>[H][C@@]12N(C)C3=CC(OC)=C(C=C3[C@@]11CCN3CC=C[C@@](CC)([C@@H](OC(C)=O)[C@]2(O)C(=O)OC)[C@@]13[H])[C@]1(C[C@@]2([H])CN(C[C@](O)(CC)C2)CCC2=C1NC1=C2C=CC=C1)C(=O)OC</t>
+  </si>
+  <si>
+    <t>[H]/C1=C([H])/[C@]([H])(OC)[C@@]([H])(OC(O)=N)C(C)=C([H])[C@]([H])(C)[C@@]([H])(O)[C@]([H])(C[C@]([H])(C)CC2=C(NCC=C)C(=O)C=C(N=C(O)\C(C)=C\1/[H])C2=O)OC</t>
+  </si>
+  <si>
+    <t>CC[C@@]1(O)C(=O)OCC2=C1C=C1N(CC3=CC4=CC=CC=C4N=C13)C2=O</t>
+  </si>
+  <si>
+    <t>CC(C)(C#N)C1=CC(=CC(CN2C=NC=N2)=C1)C(C)(C)C#N</t>
+  </si>
+  <si>
+    <t>ClCCNC(=O)N(CCCl)N=O</t>
+  </si>
+  <si>
+    <t>NC1=NC(F)=NC2=C1N=CN2[C@@H]1O[C@H](CO)[C@@H](O)[C@@H]1O</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC[C@](O)(C(=O)CO)[C@@]1(C)C[C@H](O)[C@@]1([H])[C@@]2([H])C[C@H](C)C2=CC(=O)C=C[C@]12C</t>
+  </si>
+  <si>
+    <t>O=C(C1CCCCC1)N1CC2N(CCC3=CC=CC=C23)C(=O)C1</t>
+  </si>
+  <si>
+    <t>CN1C=NC2=C(F)C(NC3=C(Cl)C=C(Br)C=C3)=C(C=C12)C(=O)NOCCO</t>
+  </si>
+  <si>
+    <t>N#CC1=CC=C(C=C1)C(N1C=NC=N1)C1=CC=C(C=C1)C#N</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)C1=CC2=CN=C(NC3=CC=C(C=N3)N3CCNCC3)N=C2N1C1CCCC1</t>
+  </si>
+  <si>
+    <t>CCCC(CCC)C(O)=O</t>
+  </si>
+  <si>
+    <t>OCC(C)(CO)C(=O)O[C@@H]1CC[C@@H](C[C@@H](C)[C@]2([H])CC(=O)[C@H](C)\C=C(C)\[C@@H](O)[C@@H](OC)C(=O)[C@H](C)C[C@H](C)\C=C\C=C\C=C(C)\[C@@H](OC)C[C@]3([H])CC[C@@H](C)[C@@](O)(O3)C(=O)C(=O)N3CCCC[C@H]3C(=O)O2)C[C@H]1OC</t>
+  </si>
+  <si>
+    <t>C[C@H](\C=C(/C)\C=C\C(=O)NO)C(=O)C1=CC=C(C=C1)N(C)C</t>
+  </si>
+  <si>
+    <t>COC(=O)C1=CCCN(C)C1</t>
+  </si>
+  <si>
+    <t>CN(C)C\C=C\C(=O)NC1=C(O[C@H]2CCOC2)C=C2N=CN=C(NC3=CC(Cl)=C(F)C=C3)C2=C1</t>
+  </si>
+  <si>
+    <t>C\C(\C=C\C1=C(C)CCCC1(C)C)=C/C=C/C(/C)=C/C(O)=O</t>
+  </si>
+  <si>
+    <t>C[C@@]1(CCCN1)C1=NC2=CC=CC(C(N)=O)=C2N1</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>[H][C@]12[C@H](OC(=O)C3=CC=CC=C3)[C@]3(O)C[C@H](OC(=O)[C@H](O)[C@@H](NC(=O)OC(C)(C)C)C4=CC=CC=C4)C(C)=C([C@@H](OC)C(=O)[C@]1(C)[C@H](C[C@H]1OC[C@@]21OC(C)=O)OC)C3(C)C</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC[C@H](O)[C@@]1(C)CC[C@]1([H])C3=C(CC[C@@]21[H])C=C(O)C=C3</t>
+  </si>
+  <si>
+    <t>COC1=CC(OC(C)C)=C(C=C1)C1=N[C@H]([C@H](N1C(=O)N1CCNC(=O)C1)C1=CC=C(Cl)C=C1)C1=CC=C(Cl)C=C1</t>
+  </si>
+  <si>
+    <t>CN(CC1=CC2=C(NC(C)=NC2=O)C=C1)C1=CC=C(S1)C(=O)N[C@@H](CCC(O)=O)C(O)=O</t>
+  </si>
+  <si>
+    <t>CC(C)C[C@H](NC(=O)[C@@H](O)[C@H](N)CC1=CC=CC=C1)C(O)=O</t>
+  </si>
+  <si>
+    <t>C\C1=C/CC[C@@]2(C)O[C@H]2[C@H]2OC(=O)C(=C)[C@@H]2CC1</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CCC(=O)[C@@]1(C)CC[C@@]1([H])[C@@]2([H])CC(=C)C2=CC(=O)C=C[C@]12C</t>
+  </si>
+  <si>
+    <t>[H][C@](C)(NC(=O)[C@@]([H])(NC(=O)C1=NC(=NC(N)=C1C)[C@H](CC(N)=O)NC[C@H](N)C(N)=O)[C@@]([H])(OC1OC(CO)C(O)C(O)C1OC1OC(CO)C(O)C(OC(N)=O)C1O)C1=CNC=N1)[C@@H](O)[C@H](C)C(=O)N[C@]([H])(C(=O)NCCC1=NC(=CS1)C1=NC(=CS1)C(=O)NCCC[S+](C)C)[C@@]([H])(C)O</t>
+  </si>
+  <si>
+    <t>O=C1NC(=O)C(N1)(C1=CC=CC=C1)C1=CC=CC=C1</t>
+  </si>
+  <si>
+    <t>CN(C)\N=N\C1=C(N=CN1)C(N)=O</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC[C@H](C(C)=O)[C@@]1(C)CC[C@@]1([H])[C@@]2([H])CCC2=CC(=O)CC[C@]12C</t>
+  </si>
+  <si>
+    <t>[H][C@@](N1CCC2=C(C1)C=CS2)(C(=O)OC)C1=CC=CC=C1Cl</t>
+  </si>
+  <si>
+    <t>CC1=CN(C=N1)C1=CC(NC(=O)C2=CC=C(C)C(NC3=NC=CC(=N3)C3=CN=CC=C3)=C2)=CC(=C1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>CC(=O)N[C@H]1[C@H](O)O[C@H](CO)[C@@H](O)C1O[C@@H]1O[C@@H]([C@@H](O[C@@H]2O[C@H](CO)[C@@H](O)C(O[C@@H]3O[C@@H]([C@@H](O)[C@H](O)[C@H]3O)C(O)=O)[C@H]2NC(C)=O)[C@H](O)[C@H]1O)C(O)=O</t>
+  </si>
+  <si>
+    <t>CN1CCN(CC1)C1=CC(NC2=NC=C3CCC4=C(N(CCO)N=C4C(N)=O)C3=N2)=C(OC(F)(F)F)C=C1</t>
+  </si>
+  <si>
+    <t>C[C@H](CCCC(C)(C)O)[C@@]1([H])CC[C@@]2([H])\C(CCC[C@]12C)=C\C=C1\C[C@@H](O)C[C@H](O)C1=C</t>
+  </si>
+  <si>
+    <t>OC1=CC=C(C=C1)C1=COC2=C(C(O)=CC(O)=C2)C1=O</t>
+  </si>
+  <si>
+    <t>C(CC1=CNC2=CC=CC=C12)NC1=CC=C(NC2=CC=NC=C2)C=C1</t>
+  </si>
+  <si>
+    <t>OS(=O)(=O)CCS[C@H]1CCO[P@@](=O)(N1)N(CCCl)CCCl</t>
+  </si>
+  <si>
+    <t>COC1=CC2=C(C(O)=C1)C(=O)C(O)=C(O2)C1=CC(O)=C(O)C=C1</t>
+  </si>
+  <si>
+    <t>OC1=CC(O)=C2C[C@@H](OC(=O)C3=CC(O)=C(O)C(O)=C3)[C@H](OC2=C1)C1=CC(O)=C(O)C(O)=C1</t>
+  </si>
+  <si>
+    <t>COC1=CC=C2C=C3C4=CC5=C(OCO5)C=C4CC[N+]3=CC2=C1OC</t>
+  </si>
+  <si>
+    <t>OC1=CC2=C(C(O)=C1)C(=O)C(O)=C(O2)C1=CC=C(O)C(O)=C1</t>
+  </si>
+  <si>
+    <t>[H][C@]12[C@H](C[C@@H](C)C=C1C=C[C@H](C)[C@@H]2CC[C@@H]1C[C@@H](O)CC(=O)O1)OC(=O)C(C)(C)CC</t>
+  </si>
+  <si>
+    <t>CN1CCN(CC1)C1=CC=C2N=C(NC2=C1)C1=C(N)C2=C(NC1=O)C=CC=C2F</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC[C@](O)(C(=O)CO)[C@@]1(C)CC(=O)[C@@]1([H])[C@@]2([H])CCC2=CC(=O)CC[C@]12C</t>
+  </si>
+  <si>
+    <t>COC1=CC=C2C[C@@H]3N(CCC4=CC(OC)=C(OC)C=C34)CC2=C1OC</t>
+  </si>
+  <si>
+    <t>NC1=NC=NC2=C1C(=NN2[C@@H]1CCCN(C1)C(=O)C=C)C1=CC=C(OC2=CC=CC=C2)C=C1</t>
+  </si>
+  <si>
+    <t>[H]OC(=O)[C@]12CC[C@@]([H])(C(C)=C)[C@]1([H])[C@@]1([H])CC[C@]3([H])[C@@]4(C)CC[C@]([H])(O[H])C(C)(C)[C@]4([H])CC[C@@]3(C)[C@]1(C)CC2</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC(=C)[C@]([H])(CC[C@@]3([H])C[C@@H](C)C(=C)[C@@]([H])(C[C@]4([H])O[C@H](C[C@H](O)CN)[C@H](OC)[C@@]4([H])CC(=O)C[C@@]4([H])CC[C@]5([H])O[C@@]6([H])[C@H]7O[C@@]8(C[C@]7([H])O[C@@]6([H])[C@@]([H])(O8)[C@@]5([H])O4)CC1)O3)O2</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC[C@H](O)[C@@]1(C)CC[C@@]1([H])[C@@]2([H])CC[C@@]2([H])CC(=O)CC[C@]12C</t>
+  </si>
+  <si>
+    <t>CN1CCN(CCOC2=CC3=C(C(NC4=C(Cl)C=CC5=C4OCO5)=NC=N3)C(OC3CCOCC3)=C2)CC1</t>
+  </si>
+  <si>
+    <t>CC(C)[C@H](O)CC[C@@H](C)[C@H]1CC[C@H]2\C(CCC[C@]12C)=C\C=C1\C[C@@H](O)C[C@H](O)C1=C</t>
+  </si>
+  <si>
     <t>0.9988978</t>
   </si>
   <si>
@@ -98,6 +830,375 @@
   </si>
   <si>
     <t>0.9862679</t>
+  </si>
+  <si>
+    <t>0.97406477</t>
+  </si>
+  <si>
+    <t>0.9737274</t>
+  </si>
+  <si>
+    <t>0.97179025</t>
+  </si>
+  <si>
+    <t>0.9511503</t>
+  </si>
+  <si>
+    <t>0.9506175</t>
+  </si>
+  <si>
+    <t>0.9407447</t>
+  </si>
+  <si>
+    <t>0.92437696</t>
+  </si>
+  <si>
+    <t>0.92239827</t>
+  </si>
+  <si>
+    <t>0.88449526</t>
+  </si>
+  <si>
+    <t>0.8758734</t>
+  </si>
+  <si>
+    <t>0.86107475</t>
+  </si>
+  <si>
+    <t>0.85962576</t>
+  </si>
+  <si>
+    <t>0.8538947</t>
+  </si>
+  <si>
+    <t>0.8192385</t>
+  </si>
+  <si>
+    <t>0.769066</t>
+  </si>
+  <si>
+    <t>0.7575893</t>
+  </si>
+  <si>
+    <t>0.7296071</t>
+  </si>
+  <si>
+    <t>0.68987805</t>
+  </si>
+  <si>
+    <t>0.63935155</t>
+  </si>
+  <si>
+    <t>0.60266966</t>
+  </si>
+  <si>
+    <t>0.566328</t>
+  </si>
+  <si>
+    <t>0.5628617</t>
+  </si>
+  <si>
+    <t>0.5516734</t>
+  </si>
+  <si>
+    <t>0.54154414</t>
+  </si>
+  <si>
+    <t>0.53707445</t>
+  </si>
+  <si>
+    <t>0.5206015</t>
+  </si>
+  <si>
+    <t>0.5165528</t>
+  </si>
+  <si>
+    <t>0.47641745</t>
+  </si>
+  <si>
+    <t>0.47421044</t>
+  </si>
+  <si>
+    <t>0.43716916</t>
+  </si>
+  <si>
+    <t>0.42657536</t>
+  </si>
+  <si>
+    <t>0.42381006</t>
+  </si>
+  <si>
+    <t>0.40109828</t>
+  </si>
+  <si>
+    <t>0.35402173</t>
+  </si>
+  <si>
+    <t>0.34343475</t>
+  </si>
+  <si>
+    <t>0.34251544</t>
+  </si>
+  <si>
+    <t>0.33296853</t>
+  </si>
+  <si>
+    <t>0.31012264</t>
+  </si>
+  <si>
+    <t>0.28819075</t>
+  </si>
+  <si>
+    <t>0.2865986</t>
+  </si>
+  <si>
+    <t>0.2503294</t>
+  </si>
+  <si>
+    <t>0.23778026</t>
+  </si>
+  <si>
+    <t>0.23502138</t>
+  </si>
+  <si>
+    <t>0.22829553</t>
+  </si>
+  <si>
+    <t>0.22522767</t>
+  </si>
+  <si>
+    <t>0.2170194</t>
+  </si>
+  <si>
+    <t>0.20932531</t>
+  </si>
+  <si>
+    <t>0.19953871</t>
+  </si>
+  <si>
+    <t>0.15606597</t>
+  </si>
+  <si>
+    <t>0.1377649</t>
+  </si>
+  <si>
+    <t>0.13296895</t>
+  </si>
+  <si>
+    <t>0.12879859</t>
+  </si>
+  <si>
+    <t>0.12370193</t>
+  </si>
+  <si>
+    <t>0.12182307</t>
+  </si>
+  <si>
+    <t>0.10236623</t>
+  </si>
+  <si>
+    <t>0.09346519</t>
+  </si>
+  <si>
+    <t>0.089513965</t>
+  </si>
+  <si>
+    <t>0.08713619</t>
+  </si>
+  <si>
+    <t>0.08702624</t>
+  </si>
+  <si>
+    <t>0.06269565</t>
+  </si>
+  <si>
+    <t>0.062035214</t>
+  </si>
+  <si>
+    <t>0.053976752</t>
+  </si>
+  <si>
+    <t>0.050518062</t>
+  </si>
+  <si>
+    <t>0.05051606</t>
+  </si>
+  <si>
+    <t>0.049359154</t>
+  </si>
+  <si>
+    <t>0.04648273</t>
+  </si>
+  <si>
+    <t>0.04461293</t>
+  </si>
+  <si>
+    <t>0.040272925</t>
+  </si>
+  <si>
+    <t>0.039325386</t>
+  </si>
+  <si>
+    <t>0.038330384</t>
+  </si>
+  <si>
+    <t>0.035820264</t>
+  </si>
+  <si>
+    <t>0.033158865</t>
+  </si>
+  <si>
+    <t>0.03313524</t>
+  </si>
+  <si>
+    <t>0.030193161</t>
+  </si>
+  <si>
+    <t>0.025927493</t>
+  </si>
+  <si>
+    <t>0.02480185</t>
+  </si>
+  <si>
+    <t>0.024493327</t>
+  </si>
+  <si>
+    <t>0.022613723</t>
+  </si>
+  <si>
+    <t>0.022041311</t>
+  </si>
+  <si>
+    <t>0.021681532</t>
+  </si>
+  <si>
+    <t>0.021650353</t>
+  </si>
+  <si>
+    <t>0.02062413</t>
+  </si>
+  <si>
+    <t>0.019926898</t>
+  </si>
+  <si>
+    <t>0.018675242</t>
+  </si>
+  <si>
+    <t>0.016953763</t>
+  </si>
+  <si>
+    <t>0.016781501</t>
+  </si>
+  <si>
+    <t>0.016657783</t>
+  </si>
+  <si>
+    <t>0.0166209</t>
+  </si>
+  <si>
+    <t>0.01603807</t>
+  </si>
+  <si>
+    <t>0.015734015</t>
+  </si>
+  <si>
+    <t>0.01556047</t>
+  </si>
+  <si>
+    <t>0.01508964</t>
+  </si>
+  <si>
+    <t>0.014087384</t>
+  </si>
+  <si>
+    <t>0.013664212</t>
+  </si>
+  <si>
+    <t>0.012516422</t>
+  </si>
+  <si>
+    <t>0.012181573</t>
+  </si>
+  <si>
+    <t>0.01187603</t>
+  </si>
+  <si>
+    <t>0.011464089</t>
+  </si>
+  <si>
+    <t>0.011362094</t>
+  </si>
+  <si>
+    <t>0.01124806</t>
+  </si>
+  <si>
+    <t>0.010852209</t>
+  </si>
+  <si>
+    <t>0.010624205</t>
+  </si>
+  <si>
+    <t>0.01006554</t>
+  </si>
+  <si>
+    <t>0.010025982</t>
+  </si>
+  <si>
+    <t>0.009815043</t>
+  </si>
+  <si>
+    <t>0.009360457</t>
+  </si>
+  <si>
+    <t>0.009275214</t>
+  </si>
+  <si>
+    <t>0.008706386</t>
+  </si>
+  <si>
+    <t>0.0084744785</t>
+  </si>
+  <si>
+    <t>0.0073476066</t>
+  </si>
+  <si>
+    <t>0.007040229</t>
+  </si>
+  <si>
+    <t>0.0067413095</t>
+  </si>
+  <si>
+    <t>0.0062867524</t>
+  </si>
+  <si>
+    <t>0.0056721237</t>
+  </si>
+  <si>
+    <t>0.0048685353</t>
+  </si>
+  <si>
+    <t>0.0043833936</t>
+  </si>
+  <si>
+    <t>0.0039449497</t>
+  </si>
+  <si>
+    <t>0.0037695693</t>
+  </si>
+  <si>
+    <t>0.00368524</t>
+  </si>
+  <si>
+    <t>0.0034052215</t>
+  </si>
+  <si>
+    <t>0.0023373966</t>
+  </si>
+  <si>
+    <t>0.002049918</t>
+  </si>
+  <si>
+    <t>0.0016360165</t>
   </si>
 </sst>
 </file>
@@ -455,7 +1556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,10 +1584,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -497,10 +1598,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -511,10 +1612,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -525,10 +1626,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -539,10 +1640,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -553,10 +1654,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -567,10 +1668,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -581,10 +1682,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -595,10 +1696,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -609,10 +1710,1732 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>194</v>
+      </c>
+      <c r="D67" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>202</v>
+      </c>
+      <c r="D75" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>203</v>
+      </c>
+      <c r="D76" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>208</v>
+      </c>
+      <c r="D81" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>211</v>
+      </c>
+      <c r="D84" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>212</v>
+      </c>
+      <c r="D85" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>215</v>
+      </c>
+      <c r="D88" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>216</v>
+      </c>
+      <c r="D89" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>217</v>
+      </c>
+      <c r="D90" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>218</v>
+      </c>
+      <c r="D91" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>220</v>
+      </c>
+      <c r="D93" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>221</v>
+      </c>
+      <c r="D94" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>222</v>
+      </c>
+      <c r="D95" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>223</v>
+      </c>
+      <c r="D96" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>224</v>
+      </c>
+      <c r="D97" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>225</v>
+      </c>
+      <c r="D98" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>226</v>
+      </c>
+      <c r="D99" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>227</v>
+      </c>
+      <c r="D100" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>228</v>
+      </c>
+      <c r="D101" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>229</v>
+      </c>
+      <c r="D102" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>230</v>
+      </c>
+      <c r="D103" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D104" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>232</v>
+      </c>
+      <c r="D105" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>233</v>
+      </c>
+      <c r="D106" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>234</v>
+      </c>
+      <c r="D107" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>235</v>
+      </c>
+      <c r="D108" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>236</v>
+      </c>
+      <c r="D109" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>238</v>
+      </c>
+      <c r="D111" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>239</v>
+      </c>
+      <c r="D112" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>240</v>
+      </c>
+      <c r="D113" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>241</v>
+      </c>
+      <c r="D114" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>242</v>
+      </c>
+      <c r="D115" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>243</v>
+      </c>
+      <c r="D116" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>244</v>
+      </c>
+      <c r="D117" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>245</v>
+      </c>
+      <c r="D118" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>246</v>
+      </c>
+      <c r="D119" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>247</v>
+      </c>
+      <c r="D120" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>248</v>
+      </c>
+      <c r="D121" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>249</v>
+      </c>
+      <c r="D122" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>250</v>
+      </c>
+      <c r="D123" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>251</v>
+      </c>
+      <c r="D124" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>252</v>
+      </c>
+      <c r="D125" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>253</v>
+      </c>
+      <c r="D126" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>254</v>
+      </c>
+      <c r="D127" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>255</v>
+      </c>
+      <c r="D128" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>256</v>
+      </c>
+      <c r="D129" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>257</v>
+      </c>
+      <c r="D130" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>258</v>
+      </c>
+      <c r="D131" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>259</v>
+      </c>
+      <c r="D132" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>260</v>
+      </c>
+      <c r="D133" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>261</v>
+      </c>
+      <c r="D134" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/media/predicted_drugs.xlsx
+++ b/media/predicted_drugs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="509">
   <si>
     <t>RNA Sequence</t>
   </si>
@@ -55,369 +55,369 @@
     <t>DB00526</t>
   </si>
   <si>
+    <t>DB00675</t>
+  </si>
+  <si>
+    <t>DB00317</t>
+  </si>
+  <si>
+    <t>DB08881</t>
+  </si>
+  <si>
     <t>DB09063</t>
   </si>
   <si>
+    <t>DB08912</t>
+  </si>
+  <si>
     <t>DB00398</t>
   </si>
   <si>
-    <t>DB00675</t>
-  </si>
-  <si>
-    <t>DB00317</t>
+    <t>DB01248</t>
+  </si>
+  <si>
+    <t>DB00541</t>
   </si>
   <si>
     <t>DB00661</t>
   </si>
   <si>
-    <t>DB01248</t>
-  </si>
-  <si>
     <t>DB00853</t>
   </si>
   <si>
-    <t>DB08881</t>
+    <t>DB00947</t>
   </si>
   <si>
     <t>DB08911</t>
   </si>
   <si>
-    <t>DB00541</t>
-  </si>
-  <si>
     <t>DB00773</t>
   </si>
   <si>
-    <t>DB08912</t>
-  </si>
-  <si>
     <t>DB00361</t>
   </si>
   <si>
+    <t>DB06999</t>
+  </si>
+  <si>
     <t>DB01268</t>
   </si>
   <si>
     <t>DB00563</t>
   </si>
   <si>
-    <t>DB00947</t>
+    <t>DB00188</t>
+  </si>
+  <si>
+    <t>DB01204</t>
   </si>
   <si>
     <t>DB00531</t>
   </si>
   <si>
+    <t>DB11672</t>
+  </si>
+  <si>
+    <t>DB08865</t>
+  </si>
+  <si>
+    <t>DB00331</t>
+  </si>
+  <si>
+    <t>DB08896</t>
+  </si>
+  <si>
+    <t>DB00928</t>
+  </si>
+  <si>
+    <t>DB01200</t>
+  </si>
+  <si>
+    <t>DB00694</t>
+  </si>
+  <si>
+    <t>DB00445</t>
+  </si>
+  <si>
+    <t>DB06603</t>
+  </si>
+  <si>
+    <t>DB01234</t>
+  </si>
+  <si>
+    <t>DB00958</t>
+  </si>
+  <si>
+    <t>DB12130</t>
+  </si>
+  <si>
+    <t>DB00530</t>
+  </si>
+  <si>
+    <t>DB12385</t>
+  </si>
+  <si>
+    <t>DB09079</t>
+  </si>
+  <si>
     <t>DB09330</t>
   </si>
   <si>
-    <t>DB00530</t>
-  </si>
-  <si>
-    <t>DB06999</t>
+    <t>DB01030</t>
+  </si>
+  <si>
+    <t>DB01262</t>
+  </si>
+  <si>
+    <t>DB01101</t>
+  </si>
+  <si>
+    <t>DB08901</t>
+  </si>
+  <si>
+    <t>DB12180</t>
+  </si>
+  <si>
+    <t>DB00305</t>
   </si>
   <si>
     <t>DB00715</t>
   </si>
   <si>
-    <t>DB01200</t>
-  </si>
-  <si>
-    <t>DB01204</t>
-  </si>
-  <si>
-    <t>DB00188</t>
-  </si>
-  <si>
-    <t>DB08901</t>
-  </si>
-  <si>
-    <t>DB00694</t>
+    <t>DB01259</t>
+  </si>
+  <si>
+    <t>DB09074</t>
+  </si>
+  <si>
+    <t>DB08877</t>
+  </si>
+  <si>
+    <t>DB00811</t>
+  </si>
+  <si>
+    <t>DB00987</t>
+  </si>
+  <si>
+    <t>DB08899</t>
+  </si>
+  <si>
+    <t>DB01254</t>
+  </si>
+  <si>
+    <t>DB01236</t>
+  </si>
+  <si>
+    <t>DB17023</t>
+  </si>
+  <si>
+    <t>DB00635</t>
+  </si>
+  <si>
+    <t>DB12340</t>
+  </si>
+  <si>
+    <t>DB01169</t>
+  </si>
+  <si>
+    <t>DB00860</t>
+  </si>
+  <si>
+    <t>DB02546</t>
+  </si>
+  <si>
+    <t>DB00444</t>
   </si>
   <si>
     <t>DB09073</t>
   </si>
   <si>
-    <t>DB00958</t>
-  </si>
-  <si>
-    <t>DB00445</t>
-  </si>
-  <si>
-    <t>DB00305</t>
-  </si>
-  <si>
-    <t>DB12340</t>
-  </si>
-  <si>
-    <t>DB12385</t>
-  </si>
-  <si>
-    <t>DB11672</t>
-  </si>
-  <si>
-    <t>DB08865</t>
-  </si>
-  <si>
-    <t>DB01030</t>
-  </si>
-  <si>
-    <t>DB01234</t>
-  </si>
-  <si>
-    <t>DB00635</t>
-  </si>
-  <si>
-    <t>DB00928</t>
-  </si>
-  <si>
-    <t>DB09074</t>
-  </si>
-  <si>
-    <t>DB09079</t>
-  </si>
-  <si>
-    <t>DB06603</t>
-  </si>
-  <si>
-    <t>DB08896</t>
-  </si>
-  <si>
-    <t>DB01101</t>
-  </si>
-  <si>
-    <t>DB08877</t>
-  </si>
-  <si>
-    <t>DB00987</t>
-  </si>
-  <si>
-    <t>DB00331</t>
-  </si>
-  <si>
-    <t>DB02546</t>
-  </si>
-  <si>
-    <t>DB00860</t>
-  </si>
-  <si>
     <t>DB11616</t>
   </si>
   <si>
-    <t>DB01254</t>
-  </si>
-  <si>
     <t>DB00877</t>
   </si>
   <si>
-    <t>DB12180</t>
-  </si>
-  <si>
-    <t>DB01262</t>
-  </si>
-  <si>
-    <t>DB01259</t>
-  </si>
-  <si>
-    <t>DB17023</t>
-  </si>
-  <si>
-    <t>DB08899</t>
-  </si>
-  <si>
-    <t>DB12130</t>
+    <t>DB00642</t>
+  </si>
+  <si>
+    <t>DB01042</t>
+  </si>
+  <si>
+    <t>DB12200</t>
+  </si>
+  <si>
+    <t>DB00762</t>
+  </si>
+  <si>
+    <t>DB12015</t>
+  </si>
+  <si>
+    <t>DB04690</t>
+  </si>
+  <si>
+    <t>DB00570</t>
+  </si>
+  <si>
+    <t>DB06626</t>
+  </si>
+  <si>
+    <t>DB00262</t>
+  </si>
+  <si>
+    <t>DB01006</t>
+  </si>
+  <si>
+    <t>DB01073</t>
+  </si>
+  <si>
+    <t>DB00959</t>
   </si>
   <si>
     <t>DB06589</t>
   </si>
   <si>
-    <t>DB00811</t>
+    <t>DB11689</t>
+  </si>
+  <si>
+    <t>DB01217</t>
+  </si>
+  <si>
+    <t>DB04868</t>
+  </si>
+  <si>
+    <t>DB00252</t>
+  </si>
+  <si>
+    <t>DB00313</t>
+  </si>
+  <si>
+    <t>DB01058</t>
+  </si>
+  <si>
+    <t>DB01645</t>
+  </si>
+  <si>
+    <t>DB03424</t>
+  </si>
+  <si>
+    <t>DB04297</t>
+  </si>
+  <si>
+    <t>DB00293</t>
+  </si>
+  <si>
+    <t>DB08916</t>
   </si>
   <si>
     <t>DB00818</t>
   </si>
   <si>
-    <t>DB00444</t>
-  </si>
-  <si>
-    <t>DB00642</t>
-  </si>
-  <si>
-    <t>DB01042</t>
-  </si>
-  <si>
-    <t>DB01236</t>
-  </si>
-  <si>
-    <t>DB06626</t>
-  </si>
-  <si>
-    <t>DB12200</t>
-  </si>
-  <si>
-    <t>DB00762</t>
-  </si>
-  <si>
-    <t>DB01169</t>
-  </si>
-  <si>
-    <t>DB12015</t>
-  </si>
-  <si>
-    <t>DB00570</t>
+    <t>DB13063</t>
+  </si>
+  <si>
+    <t>DB07232</t>
+  </si>
+  <si>
+    <t>DB04216</t>
+  </si>
+  <si>
+    <t>DB15110</t>
+  </si>
+  <si>
+    <t>DB00758</t>
+  </si>
+  <si>
+    <t>DB12027</t>
+  </si>
+  <si>
+    <t>DB12116</t>
+  </si>
+  <si>
+    <t>DB00990</t>
+  </si>
+  <si>
+    <t>DB00290</t>
+  </si>
+  <si>
+    <t>DB06772</t>
+  </si>
+  <si>
+    <t>DB17039</t>
+  </si>
+  <si>
+    <t>DB06287</t>
+  </si>
+  <si>
+    <t>DB00851</t>
+  </si>
+  <si>
+    <t>DB16772</t>
+  </si>
+  <si>
+    <t>DB00783</t>
+  </si>
+  <si>
+    <t>DB11730</t>
+  </si>
+  <si>
+    <t>DB11091</t>
+  </si>
+  <si>
+    <t>DB00755</t>
+  </si>
+  <si>
+    <t>DB12083</t>
   </si>
   <si>
     <t>DB05134</t>
   </si>
   <si>
-    <t>DB04690</t>
-  </si>
-  <si>
-    <t>DB01217</t>
-  </si>
-  <si>
-    <t>DB00262</t>
-  </si>
-  <si>
-    <t>DB01073</t>
-  </si>
-  <si>
-    <t>DB00959</t>
-  </si>
-  <si>
-    <t>DB01058</t>
-  </si>
-  <si>
-    <t>DB11689</t>
-  </si>
-  <si>
-    <t>DB01006</t>
-  </si>
-  <si>
-    <t>DB11730</t>
-  </si>
-  <si>
-    <t>DB00313</t>
-  </si>
-  <si>
-    <t>DB06287</t>
-  </si>
-  <si>
-    <t>DB04297</t>
+    <t>DB05928</t>
+  </si>
+  <si>
+    <t>DB00136</t>
+  </si>
+  <si>
+    <t>DB00396</t>
+  </si>
+  <si>
+    <t>DB04115</t>
+  </si>
+  <si>
+    <t>DB14681</t>
   </si>
   <si>
     <t>DB04365</t>
   </si>
   <si>
-    <t>DB08916</t>
-  </si>
-  <si>
-    <t>DB00755</t>
-  </si>
-  <si>
-    <t>DB07232</t>
-  </si>
-  <si>
-    <t>DB11091</t>
-  </si>
-  <si>
-    <t>DB06772</t>
-  </si>
-  <si>
-    <t>DB00783</t>
-  </si>
-  <si>
-    <t>DB17039</t>
-  </si>
-  <si>
-    <t>DB00293</t>
-  </si>
-  <si>
-    <t>DB03424</t>
-  </si>
-  <si>
-    <t>DB13063</t>
-  </si>
-  <si>
-    <t>DB00990</t>
-  </si>
-  <si>
-    <t>DB00290</t>
-  </si>
-  <si>
-    <t>DB00252</t>
-  </si>
-  <si>
-    <t>DB00851</t>
-  </si>
-  <si>
-    <t>DB00396</t>
-  </si>
-  <si>
-    <t>DB00758</t>
-  </si>
-  <si>
-    <t>DB04868</t>
-  </si>
-  <si>
     <t>DB08818</t>
   </si>
   <si>
-    <t>DB15110</t>
-  </si>
-  <si>
-    <t>DB00136</t>
-  </si>
-  <si>
-    <t>DB01645</t>
-  </si>
-  <si>
-    <t>DB12027</t>
-  </si>
-  <si>
-    <t>DB12083</t>
-  </si>
-  <si>
-    <t>DB16772</t>
-  </si>
-  <si>
-    <t>DB12116</t>
-  </si>
-  <si>
-    <t>DB04115</t>
-  </si>
-  <si>
-    <t>DB04216</t>
+    <t>DB09053</t>
+  </si>
+  <si>
+    <t>DB02901</t>
+  </si>
+  <si>
+    <t>DB08871</t>
+  </si>
+  <si>
+    <t>DB12480</t>
   </si>
   <si>
     <t>DB00641</t>
   </si>
   <si>
-    <t>DB05928</t>
-  </si>
-  <si>
-    <t>DB14681</t>
-  </si>
-  <si>
     <t>DB12093</t>
   </si>
   <si>
-    <t>DB09053</t>
-  </si>
-  <si>
-    <t>DB12480</t>
-  </si>
-  <si>
-    <t>DB08871</t>
-  </si>
-  <si>
-    <t>DB02901</t>
+    <t>DB13689</t>
   </si>
   <si>
     <t>DB11805</t>
   </si>
   <si>
-    <t>DB13689</t>
-  </si>
-  <si>
     <t>COC1=CC=CC2=C1C(=O)C1=C(O)C3=C(C[C@](O)(C[C@@H]3O[C@H]3C[C@H](N)[C@H](O)[C@H](C)O3)C(=O)CO)C(O)=C1C2=O</t>
   </si>
   <si>
@@ -439,766 +439,1108 @@
     <t>[H][N]1([H])[C@@H]2CCCC[C@H]2[N]([H])([H])[Pt]11OC(=O)C(=O)O1</t>
   </si>
   <si>
+    <t>CC\C(=C(/C1=CC=CC=C1)C1=CC=C(OCCN(C)C)C=C1)C1=CC=CC=C1</t>
+  </si>
+  <si>
+    <t>COC1=C(OCCCN2CCOCC2)C=C2C(NC3=CC(Cl)=C(F)C=C3)=NC=NC2=C1</t>
+  </si>
+  <si>
+    <t>CCCS(=O)(=O)NC1=C(F)C(C(=O)C2=CNC3=NC=C(C=C23)C2=CC=C(Cl)C=C2)=C(F)C=C1</t>
+  </si>
+  <si>
     <t>CC(C)OC1=C(NC2=NC=C(Cl)C(N2)=NC2=CC=CC=C2S(=O)(=O)C(C)C)C=C(C)C(=C1)C1CCNCC1</t>
   </si>
   <si>
+    <t>CC(C)(C)C1=NC(=C(S1)C1=NC(N)=NC=C1)C1=C(F)C(NS(=O)(=O)C2=C(F)C=CC=C2F)=CC=C1</t>
+  </si>
+  <si>
     <t>CNC(=O)C1=NC=CC(OC2=CC=C(NC(=O)NC3=CC(=C(Cl)C=C3)C(F)(F)F)C=C2)=C1</t>
   </si>
   <si>
-    <t>CC\C(=C(/C1=CC=CC=C1)C1=CC=C(OCCN(C)C)C=C1)C1=CC=CC=C1</t>
-  </si>
-  <si>
-    <t>COC1=C(OCCCN2CCOCC2)C=C2C(NC3=CC(Cl)=C(F)C=C3)=NC=NC2=C1</t>
+    <t>[H][C@@]1(C[C@@]2(O)[C@@H](OC(=O)C3=CC=CC=C3)[C@]3([H])[C@@]4(CO[C@@H]4C[C@H](O)[C@@]3(C)C(=O)[C@H](O)C(=C1C)C2(C)C)OC(C)=O)OC(=O)[C@H](O)[C@@H](NC(=O)OC(C)(C)C)C1=CC=CC=C1</t>
+  </si>
+  <si>
+    <t>[H][C@@]12N3CC[C@@]11C4=C(C=C(OC)C(=C4)[C@]4(C[C@H]5C[N@](C[C@](O)(CC)C5)CCC5=C4NC4=CC=CC=C54)C(=O)OC)N(C=O)[C@@]1([H])[C@](O)([C@H](OC(C)=O)[C@]2(CC)C=CC3)C(=O)OC</t>
   </si>
   <si>
     <t>COC1=C(OC)C=C(CCN(C)CCCC(C#N)(C(C)C)C2=CC(OC)=C(OC)C=C2)C=C1</t>
   </si>
   <si>
-    <t>[H][C@@]1(C[C@@]2(O)[C@@H](OC(=O)C3=CC=CC=C3)[C@]3([H])[C@@]4(CO[C@@H]4C[C@H](O)[C@@]3(C)C(=O)[C@H](O)C(=C1C)C2(C)C)OC(C)=O)OC(=O)[C@H](O)[C@@H](NC(=O)OC(C)(C)C)C1=CC=CC=C1</t>
-  </si>
-  <si>
     <t>CN1N=NC2=C(N=CN2C1=O)C(N)=O</t>
   </si>
   <si>
-    <t>CCCS(=O)(=O)NC1=C(F)C(C(=O)C2=CNC3=NC=C(C=C23)C2=CC=C(Cl)C=C2)=C(F)C=C1</t>
+    <t>[H][C@@]12CC[C@H](O)[C@@]1(C)CC[C@]1([H])C3=CC=C(O)C=C3C[C@@H](CCCCCCCCCS(=O)CCCC(F)(F)C(F)(F)F)[C@@]21[H]</t>
   </si>
   <si>
     <t>CN1C(=O)C(C)=C2N(C(=O)N(C3CC3)C(=O)C2=C1NC1=CC=C(I)C=C1F)C1=CC(NC(C)=O)=CC=C1</t>
   </si>
   <si>
-    <t>[H][C@@]12N3CC[C@@]11C4=C(C=C(OC)C(=C4)[C@]4(C[C@H]5C[N@](C[C@](O)(CC)C5)CCC5=C4NC4=CC=CC=C54)C(=O)OC)N(C=O)[C@@]1([H])[C@](O)([C@H](OC(C)=O)[C@]2(CC)C=CC3)C(=O)OC</t>
-  </si>
-  <si>
     <t>[H][C@]12COC(=O)[C@]1([H])[C@H](C1=CC(OC)=C(O)C(OC)=C1)C1=CC3=C(OCO3)C=C1[C@H]2O[C@@H]1O[C@]2([H])CO[C@@H](C)O[C@@]2([H])[C@H](O)[C@H]1O</t>
   </si>
   <si>
-    <t>CC(C)(C)C1=NC(=C(S1)C1=NC(N)=NC=C1)C1=C(F)C(NS(=O)(=O)C2=C(F)C=CC=C2F)=CC=C1</t>
-  </si>
-  <si>
     <t>[H][C@@]12N(C)C3=CC(OC)=C(C=C3[C@@]11CCN3CC=C[C@](CC)([C@@]13[H])[C@@]([H])(OC(C)=O)[C@]2(O)C(=O)OC)[C@]1(C[C@@]2([H])CN(CC(CC)=C2)CC2=C1NC1=CC=CC=C21)C(=O)OC</t>
   </si>
   <si>
+    <t>CCCS(=O)(=O)NC1=CC=C(F)C(C(=O)C2=CNC3=C2C=C(Cl)C=N3)=C1F</t>
+  </si>
+  <si>
     <t>CCN(CC)CCNC(=O)C1=C(C)NC(\C=C2/C(=O)NC3=C2C=C(F)C=C3)=C1C</t>
   </si>
   <si>
     <t>CN(CC1=CN=C2N=C(N)N=C(N)C2=N1)C1=CC=C(C=C1)C(=O)N[C@@H](CCC(O)=O)C(O)=O</t>
   </si>
   <si>
-    <t>[H][C@@]12CC[C@H](O)[C@@]1(C)CC[C@]1([H])C3=CC=C(O)C=C3C[C@@H](CCCCCCCCCS(=O)CCCC(F)(F)C(F)(F)F)[C@@]21[H]</t>
+    <t>CC(C)C[C@H](NC(=O)[C@H](CC1=CC=CC=C1)NC(=O)C1=CN=CC=N1)B(O)O</t>
+  </si>
+  <si>
+    <t>OCCNCCNC1=CC=C(NCCNCCO)C2=C1C(=O)C1=C(C(O)=CC=C1O)C2=O</t>
   </si>
   <si>
     <t>ClCCN(CCCl)P1(=O)NCCCO1</t>
   </si>
   <si>
+    <t>COC1=CC(\C=C\C(=O)CC(=O)\C=C\C2=CC(OC)=C(O)C=C2)=CC=C1O</t>
+  </si>
+  <si>
+    <t>C[C@@H](OC1=CC(=CN=C1N)C1=CN(N=C1)C1CCNCC1)C1=C(Cl)C=CC(F)=C1Cl</t>
+  </si>
+  <si>
+    <t>CN(C)C(=N)NC(N)=N</t>
+  </si>
+  <si>
+    <t>CNC(=O)C1=CC(OC2=CC(F)=C(NC(=O)NC3=CC=C(Cl)C(=C3)C(F)(F)F)C=C2)=CC=N1</t>
+  </si>
+  <si>
+    <t>NC1=NC(=O)N(C=N1)[C@@H]1O[C@H](CO)[C@@H](O)[C@H]1O</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CCCN1C(=O)[C@H](CC(C)C)N1C(=O)[C@](NC(=O)[C@H]3CN(C)[C@]4([H])CC5=C(Br)NC6=CC=CC(=C56)C4=C3)(O[C@@]21O)C(C)C</t>
+  </si>
+  <si>
+    <t>COC1=CC=CC2=C1C(=O)C1=C(O)C3=C(C[C@](O)(C[C@@H]3O[C@H]3C[C@H](N)[C@H](O)[C@H](C)O3)C(C)=O)C(O)=C1C2=O</t>
+  </si>
+  <si>
+    <t>COC1=CC=CC2=C1C(=O)C1=C(O)C3=C(C[C@](O)(C[C@@H]3O[C@H]3C[C@H](N)[C@@H](O)[C@H](C)O3)C(=O)CO)C(O)=C1C2=O</t>
+  </si>
+  <si>
+    <t>CC1=C(CCNCC2=CC=C(\C=C\C(=O)NO)C=C2)C2=CC=CC=C2N1</t>
+  </si>
+  <si>
+    <t>[H][C@@]12C[C@@H](C)[C@](O)(C(=O)CO)[C@@]1(C)C[C@H](O)[C@@]1(F)[C@@]2([H])CCC2=CC(=O)C=C[C@]12C</t>
+  </si>
+  <si>
+    <t>[H][N]([H])([H])[Pt]1(OC(=O)C2(CCC2)C(=O)O1)[N]([H])([H])[H]</t>
+  </si>
+  <si>
+    <t>C[C@H]1OC2=C(N)N=CC(=C2)C2=C(C#N)N(C)N=C2CN(C)C(=O)C2=C1C=C(F)C=C2</t>
+  </si>
+  <si>
+    <t>COCCOC1=CC2=C(C=C1OCCOC)C(NC1=CC(=CC=C1)C#C)=NC=N2</t>
+  </si>
+  <si>
+    <t>CC[C@@]1(O)C(=O)OCC2=C1C=C1N(CC3=C1N=C1C=CC(O)=CC1=C3)C2=O</t>
+  </si>
+  <si>
+    <t>COC(=O)C1=CC=C2C(NC(=O)\C2=C(/NC2=CC=C(C=C2)N(C)C(=O)CN2CCN(C)CC2)C2=CC=CC=C2)=C1</t>
+  </si>
+  <si>
     <t>COC1=C(NC2=NC=CC(=N2)C2=CN(C)C3=C2C=CC=C3)C=C(NC(=O)C=C)C(=C1)N(C)CCN(C)C</t>
   </si>
   <si>
-    <t>COCCOC1=CC2=C(C=C1OCCOC)C(NC1=CC(=CC=C1)C#C)=NC=N2</t>
-  </si>
-  <si>
-    <t>CCCS(=O)(=O)NC1=CC=C(F)C(C(=O)C2=CNC3=C2C=C(Cl)C=N3)=C1F</t>
+    <t>CC[C@@]1(O)C(=O)OCC2=C1C=C1N(CC3=CC4=C(C=CC(O)=C4CN(C)C)N=C13)C2=O</t>
+  </si>
+  <si>
+    <t>NC1=NC(=O)N(C=N1)[C@H]1C[C@H](O)[C@@H](CO)O1</t>
+  </si>
+  <si>
+    <t>CCCCCOC(=O)NC1=NC(=O)N(C=C1F)[C@@H]1O[C@H](C)[C@@H](O)[C@H]1O</t>
+  </si>
+  <si>
+    <t>CN1CCN(CC2=CC=C(NC(=O)C3=CC(C#CC4=CN=C5C=CC=NN45)=C(C)C=C3)C=C2C(F)(F)F)CC1</t>
+  </si>
+  <si>
+    <t>C[C@H](O)C(=O)N1CCN(CC2=C(C)C3=NC(=NC(N4CCOCC4)=C3S2)C2=CN=C(N)N=C2)CC1</t>
+  </si>
+  <si>
+    <t>[H][C@]12CN3C4=C([C@@H](COC(N)=O)[C@@]3(OC)[C@@]1([H])N2)C(=O)C(N)=C(C)C4=O</t>
   </si>
   <si>
     <t>FC1=CC=C(C=C1)[C@@H]1CCNC[C@H]1COC1=CC2=C(OCO2)C=C1</t>
   </si>
   <si>
-    <t>[H][C@@]12CCCN1C(=O)[C@H](CC(C)C)N1C(=O)[C@](NC(=O)[C@H]3CN(C)[C@]4([H])CC5=C(Br)NC6=CC=CC(=C56)C4=C3)(O[C@@]21O)C(C)C</t>
-  </si>
-  <si>
-    <t>OCCNCCNC1=CC=C(NCCNCCO)C2=C1C(=O)C1=C(C(O)=CC=C1O)C2=O</t>
-  </si>
-  <si>
-    <t>CC(C)C[C@H](NC(=O)[C@H](CC1=CC=CC=C1)NC(=O)C1=CN=CC=N1)B(O)O</t>
-  </si>
-  <si>
-    <t>CN1CCN(CC2=CC=C(NC(=O)C3=CC(C#CC4=CN=C5C=CC=NN45)=C(C)C=C3)C=C2C(F)(F)F)CC1</t>
-  </si>
-  <si>
-    <t>COC1=CC=CC2=C1C(=O)C1=C(O)C3=C(C[C@](O)(C[C@@H]3O[C@H]3C[C@H](N)[C@H](O)[C@H](C)O3)C(C)=O)C(O)=C1C2=O</t>
+    <t>CS(=O)(=O)CCNCC1=CC=C(O1)C1=CC2=C(C=C1)N=CN=C2NC1=CC(Cl)=C(OCC2=CC(F)=CC=C2)C=C1</t>
+  </si>
+  <si>
+    <t>FC1=CC=C(CC2=NNC(=O)C3=CC=CC=C23)C=C1C(=O)N1CCN(CC1)C(=O)C1CC1</t>
+  </si>
+  <si>
+    <t>N#CC[C@H](C1CCCC1)N1C=C(C=N1)C1=C2C=CNC2=NC=N1</t>
+  </si>
+  <si>
+    <t>NC(=O)C1=NN(C=N1)[C@@H]1O[C@H](CO)[C@@H](O)[C@H]1O</t>
+  </si>
+  <si>
+    <t>NC1=NC(=O)N(C=C1)[C@@H]1O[C@H](CO)[C@@H](O)[C@@H]1O</t>
+  </si>
+  <si>
+    <t>CNC(=O)C1=C(F)C=C(C=C1)N1C(=S)N(C(=O)C1(C)C)C1=CC=C(C#N)C(=C1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>CC1=NC(NC2=NC=C(S2)C(=O)NC2=C(C)C=CC=C2Cl)=CC(=N1)N1CCN(CCO)CC1</t>
+  </si>
+  <si>
+    <t>FCOC(C(F)(F)F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>CN(C)CC[C@H](CSC1=CC=CC=C1)NC1=CC=C(C=C1[N+]([O-])=O)S(=O)(=O)NC(=O)C1=CC=C(C=C1)N1CCN(CC2=CC=CC=C2C2=CC=C(Cl)C=C2)CC1</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC[C@](O)(C(=O)CO)[C@@]1(C)CC(=O)[C@@]1([H])[C@@]2([H])CCC2=CC(=O)C=C[C@]12C</t>
+  </si>
+  <si>
+    <t>[H][C@@](CCN1CCOCC1)(CSC1=CC=CC=C1)NC1=C(C=C(C=C1)S(=O)(=O)NC(=O)C1=CC=C(C=C1)N1CCN(CC2=C(CCC(C)(C)C2)C2=CC=C(Cl)C=C2)CC1)S(=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>O=[As]O[As]=O</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC[C@](O)(C(=O)CO)[C@@]1(C)C[C@H](O)[C@@]1([H])[C@@]2([H])CCC2=CC(=O)C=C[C@]12C</t>
+  </si>
+  <si>
+    <t>ONC(=O)CCCCCCC(=O)NC1=CC=CC=C1</t>
+  </si>
+  <si>
+    <t>[H][C@]12COC(=O)[C@]1([H])[C@H](C1=CC(OC)=C(O)C(OC)=C1)C1=C(C=C3OCOC3=C1)[C@H]2O[C@]1([H])O[C@]2([H])CO[C@H](O[C@@]2([H])[C@H](O)[C@H]1O)C1=CC=CS1</t>
   </si>
   <si>
     <t>CC(=O)C1=C(C)C2=CN=C(NC3=NC=C(C=C3)N3CCNCC3)N=C2N(C2CCCC2)C1=O</t>
   </si>
   <si>
-    <t>[H][N]([H])([H])[Pt]1(OC(=O)C2(CCC2)C(=O)O1)[N]([H])([H])[H]</t>
-  </si>
-  <si>
-    <t>COC1=CC=CC2=C1C(=O)C1=C(O)C3=C(C[C@](O)(C[C@@H]3O[C@H]3C[C@H](N)[C@@H](O)[C@H](C)O3)C(=O)CO)C(O)=C1C2=O</t>
-  </si>
-  <si>
-    <t>[H][C@]12CN3C4=C([C@@H](COC(N)=O)[C@@]3(OC)[C@@]1([H])N2)C(=O)C(N)=C(C)C4=O</t>
-  </si>
-  <si>
-    <t>[H][C@@](CCN1CCOCC1)(CSC1=CC=CC=C1)NC1=C(C=C(C=C1)S(=O)(=O)NC(=O)C1=CC=C(C=C1)N1CCN(CC2=C(CCC(C)(C)C2)C2=CC=C(Cl)C=C2)CC1)S(=O)(=O)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>CC[C@@]1(O)C(=O)OCC2=C1C=C1N(CC3=C1N=C1C=CC(O)=CC1=C3)C2=O</t>
-  </si>
-  <si>
-    <t>COC1=CC(\C=C\C(=O)CC(=O)\C=C\C2=CC(OC)=C(O)C=C2)=CC=C1O</t>
-  </si>
-  <si>
-    <t>C[C@@H](OC1=CC(=CN=C1N)C1=CN(N=C1)C1CCNCC1)C1=C(Cl)C=CC(F)=C1Cl</t>
-  </si>
-  <si>
-    <t>CC[C@@]1(O)C(=O)OCC2=C1C=C1N(CC3=CC4=C(C=CC(O)=C4CN(C)C)N=C13)C2=O</t>
-  </si>
-  <si>
-    <t>[H][C@@]12C[C@@H](C)[C@](O)(C(=O)CO)[C@@]1(C)C[C@H](O)[C@@]1(F)[C@@]2([H])CCC2=CC(=O)C=C[C@]12C</t>
-  </si>
-  <si>
-    <t>[H][C@@]12CC[C@](O)(C(=O)CO)[C@@]1(C)CC(=O)[C@@]1([H])[C@@]2([H])CCC2=CC(=O)C=C[C@]12C</t>
-  </si>
-  <si>
-    <t>NC1=NC(=O)N(C=N1)[C@@H]1O[C@H](CO)[C@@H](O)[C@H]1O</t>
-  </si>
-  <si>
-    <t>FC1=CC=C(CC2=NNC(=O)C3=CC=CC=C23)C=C1C(=O)N1CCN(CC1)C(=O)C1CC1</t>
-  </si>
-  <si>
-    <t>COC(=O)C1=CC=C2C(NC(=O)\C2=C(/NC2=CC=C(C=C2)N(C)C(=O)CN2CCN(C)CC2)C2=CC=CC=C2)=C1</t>
-  </si>
-  <si>
-    <t>CC1=C(CCNCC2=CC=C(\C=C\C(=O)NO)C=C2)C2=CC=CC=C2N1</t>
-  </si>
-  <si>
-    <t>CNC(=O)C1=CC(OC2=CC(F)=C(NC(=O)NC3=CC=C(Cl)C(=C3)C(F)(F)F)C=C2)=CC=N1</t>
-  </si>
-  <si>
-    <t>CCCCCOC(=O)NC1=NC(=O)N(C=C1F)[C@@H]1O[C@H](C)[C@@H](O)[C@H]1O</t>
-  </si>
-  <si>
-    <t>N#CC[C@H](C1CCCC1)N1C=C(C=N1)C1=C2C=CNC2=NC=N1</t>
-  </si>
-  <si>
-    <t>NC1=NC(=O)N(C=C1)[C@@H]1O[C@H](CO)[C@@H](O)[C@@H]1O</t>
-  </si>
-  <si>
-    <t>CN(C)C(=N)NC(N)=N</t>
-  </si>
-  <si>
-    <t>ONC(=O)CCCCCCC(=O)NC1=CC=CC=C1</t>
-  </si>
-  <si>
-    <t>[H][C@@]12CC[C@](O)(C(=O)CO)[C@@]1(C)C[C@H](O)[C@@]1([H])[C@@]2([H])CCC2=CC(=O)C=C[C@]12C</t>
-  </si>
-  <si>
     <t>[H][C@]1(N)C[C@]([H])(O[C@@]2([H])C[C@@](O)(CC3=C(O)C4=C(C(O)=C23)C(=O)C2=C(C=CC=C2OC)C4=O)C(=O)CO)O[C@@]([H])(C)[C@@]1([H])O[C@]1([H])CCCCO1</t>
   </si>
   <si>
-    <t>CC1=NC(NC2=NC=C(S2)C(=O)NC2=C(C)C=CC=C2Cl)=CC(=N1)N1CCN(CCO)CC1</t>
-  </si>
-  <si>
     <t>[H][C@@]1(C[C@@H](C)[C@]2([H])CC(=O)[C@H](C)\C=C(C)\[C@@H](O)[C@@H](OC)C(=O)[C@H](C)C[C@H](C)\C=C\C=C\C=C(C)\[C@H](C[C@]3([H])CC[C@@H](C)[C@@](O)(O3)C(=O)C(=O)N3CCCC[C@@]3([H])C(=O)O2)OC)CC[C@@H](O)[C@@H](C1)OC</t>
   </si>
   <si>
-    <t>C[C@H](O)C(=O)N1CCN(CC2=C(C)C3=NC(=NC(N4CCOCC4)=C3S2)C2=CN=C(N)N=C2)CC1</t>
-  </si>
-  <si>
-    <t>NC1=NC(=O)N(C=N1)[C@H]1C[C@H](O)[C@@H](CO)O1</t>
-  </si>
-  <si>
-    <t>CS(=O)(=O)CCNCC1=CC=C(O1)C1=CC2=C(C=C1)N=CN=C2NC1=CC(Cl)=C(OCC2=CC(F)=CC=C2)C=C1</t>
-  </si>
-  <si>
-    <t>CN(C)CC[C@H](CSC1=CC=CC=C1)NC1=CC=C(C=C1[N+]([O-])=O)S(=O)(=O)NC(=O)C1=CC=C(C=C1)N1CCN(CC2=CC=CC=C2C2=CC=C(Cl)C=C2)CC1</t>
-  </si>
-  <si>
-    <t>CNC(=O)C1=C(F)C=C(C=C1)N1C(=S)N(C(=O)C1(C)C)C1=CC=C(C#N)C(=C1)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>C[C@H]1OC2=C(N)N=CC(=C2)C2=C(C#N)N(C)N=C2CN(C)C(=O)C2=C1C=C(F)C=C2</t>
+    <t>NC1=NC(=O)C2=C(NC=C2CCC2=CC=C(C=C2)C(=O)N[C@@H](CCC(O)=O)C(O)=O)N1</t>
+  </si>
+  <si>
+    <t>N[C@@H](CC1=CC=C(C=C1)N(CCCl)CCCl)C(O)=O</t>
+  </si>
+  <si>
+    <t>O=C1NC(=O)[C@H]([C@@H]1C1=CNC2=CC=CC=C12)C1=CN2CCCC3=C2C1=CC=C3</t>
+  </si>
+  <si>
+    <t>CCC1=C2CN3C(=CC4=C(COC(=O)[C@]4(O)CC)C3=O)C2=NC2=CC=C(OC(=O)N3CCC(CC3)N3CCCCC3)C=C12</t>
+  </si>
+  <si>
+    <t>CC1=C(SC(NC(=O)N2CCC[C@H]2C(N)=O)=N1)C1=CC(=NC=C1)C(C)(C)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>CC[C@@]1(O)C(=O)OCC2=C1C=C1N(CC3=CC4=CC=CC=C4N=C13)C2=O</t>
+  </si>
+  <si>
+    <t>[H][C@@]12N(C)C3=CC(OC)=C(C=C3[C@@]11CCN3CC=C[C@@](CC)([C@@H](OC(C)=O)[C@]2(O)C(=O)OC)[C@@]13[H])[C@]1(C[C@@]2([H])CN(C[C@](O)(CC)C2)CCC2=C1NC1=C2C=CC=C1)C(=O)OC</t>
+  </si>
+  <si>
+    <t>CNC(=O)C1=C(SC2=CC=C3C(NN=C3\C=C\C3=CC=CC=N3)=C2)C=CC=C1</t>
+  </si>
+  <si>
+    <t>ClCCNC(=O)N(CCCl)N=O</t>
+  </si>
+  <si>
+    <t>N#CC1=CC=C(C=C1)C(N1C=NC=N1)C1=CC=C(C=C1)C#N</t>
+  </si>
+  <si>
+    <t>NC1=NC(F)=NC2=C1N=CN2[C@@H]1O[C@H](CO)[C@@H](O)[C@@H]1O</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC[C@](O)(C(=O)CO)[C@@]1(C)C[C@H](O)[C@@]1([H])[C@@]2([H])C[C@H](C)C2=CC(=O)C=C[C@]12C</t>
   </si>
   <si>
     <t>CN(C1=CC2=NN(C)C(C)=C2C=C1)C1=CC=NC(NC2=CC=C(C)C(=C2)S(N)(=O)=O)=N1</t>
   </si>
   <si>
-    <t>NC(=O)C1=NN(C=N1)[C@@H]1O[C@H](CO)[C@@H](O)[C@H]1O</t>
+    <t>CN1C=NC2=C(F)C(NC3=C(Cl)C=C(Br)C=C3)=C(C=C12)C(=O)NOCCO</t>
+  </si>
+  <si>
+    <t>CC(C)(C#N)C1=CC(=CC(CN2C=NC=N2)=C1)C(C)(C)C#N</t>
+  </si>
+  <si>
+    <t>CC1=CN(C=N1)C1=CC(NC(=O)C2=CC=C(C)C(NC3=NC=CC(=N3)C3=CN=CC=C3)=C2)=CC(=C1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>O=C1NC(=O)C(N1)(C1=CC=CC=C1)C1=CC=CC=C1</t>
+  </si>
+  <si>
+    <t>CCCC(CCC)C(O)=O</t>
+  </si>
+  <si>
+    <t>O=C(C1CCCCC1)N1CC2N(CCC3=CC=CC=C23)C(=O)C1</t>
+  </si>
+  <si>
+    <t>OC1=CC=C(C=C1)C1=COC2=C(C(O)=CC(O)=C2)C1=O</t>
+  </si>
+  <si>
+    <t>CC(C)C[C@H](NC(=O)[C@@H](O)[C@H](N)CC1=CC=CC=C1)C(O)=O</t>
+  </si>
+  <si>
+    <t>C[C@H](\C=C(/C)\C=C\C(=O)NO)C(=O)C1=CC=C(C=C1)N(C)C</t>
+  </si>
+  <si>
+    <t>CN(CC1=CC2=C(NC(C)=NC2=O)C=C1)C1=CC=C(S1)C(=O)N[C@@H](CCC(O)=O)C(O)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C\C=C\C(=O)NC1=C(O[C@H]2CCOC2)C=C2N=CN=C(NC3=CC(Cl)=C(F)C=C3)C2=C1</t>
   </si>
   <si>
     <t>CC(C)C1=CC=CC(C(C)C)=C1O</t>
   </si>
   <si>
-    <t>[H][C@]12COC(=O)[C@]1([H])[C@H](C1=CC(OC)=C(O)C(OC)=C1)C1=C(C=C3OCOC3=C1)[C@H]2O[C@]1([H])O[C@]2([H])CO[C@H](O[C@@]2([H])[C@H](O)[C@H]1O)C1=CC=CS1</t>
-  </si>
-  <si>
-    <t>NC1=NC(=O)C2=C(NC=C2CCC2=CC=C(C=C2)C(=O)N[C@@H](CCC(O)=O)C(O)=O)N1</t>
-  </si>
-  <si>
-    <t>N[C@@H](CC1=CC=C(C=C1)N(CCCl)CCCl)C(O)=O</t>
-  </si>
-  <si>
-    <t>FCOC(C(F)(F)F)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>CNC(=O)C1=C(SC2=CC=C3C(NN=C3\C=C\C3=CC=CC=N3)=C2)C=CC=C1</t>
-  </si>
-  <si>
-    <t>O=C1NC(=O)[C@H]([C@@H]1C1=CNC2=CC=CC=C12)C1=CN2CCCC3=C2C1=CC=C3</t>
-  </si>
-  <si>
-    <t>CCC1=C2CN3C(=CC4=C(COC(=O)[C@]4(O)CC)C3=O)C2=NC2=CC=C(OC(=O)N3CCC(CC3)N3CCCCC3)C=C12</t>
-  </si>
-  <si>
-    <t>O=[As]O[As]=O</t>
-  </si>
-  <si>
-    <t>CC1=C(SC(NC(=O)N2CCC[C@H]2C(N)=O)=N1)C1=CC(=NC=C1)C(C)(C)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>[H][C@@]12N(C)C3=CC(OC)=C(C=C3[C@@]11CCN3CC=C[C@@](CC)([C@@H](OC(C)=O)[C@]2(O)C(=O)OC)[C@@]13[H])[C@]1(C[C@@]2([H])CN(C[C@](O)(CC)C2)CCC2=C1NC1=C2C=CC=C1)C(=O)OC</t>
+    <t>C\C1=C/CC[C@@]2(C)O[C@H]2[C@H]2OC(=O)C(=C)[C@@H]2CC1</t>
+  </si>
+  <si>
+    <t>C[C@@]1(CCCN1)C1=NC2=CC=CC(C(N)=O)=C2N1</t>
+  </si>
+  <si>
+    <t>OC1=CC2=C(C(O)=C1)C(=O)C(O)=C(O2)C1=CC=C(O)C(O)=C1</t>
+  </si>
+  <si>
+    <t>CN1CCN(CC1)C1=CC(NC2=NC=C3CCC4=C(N(CCO)N=C4C(N)=O)C3=N2)=C(OC(F)(F)F)C=C1</t>
+  </si>
+  <si>
+    <t>[H][C@@](N1CCC2=C(C1)C=CS2)(C(=O)OC)C1=CC=CC=C1Cl</t>
+  </si>
+  <si>
+    <t>C(CC1=CNC2=CC=CC=C12)NC1=CC=C(NC2=CC=NC=C2)C=C1</t>
+  </si>
+  <si>
+    <t>OC1=CC(O)=C2C[C@@H](OC(=O)C3=CC(O)=C(O)C(O)=C3)[C@H](OC2=C1)C1=CC(O)=C(O)C(O)=C1</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CCC(=O)[C@@]1(C)CC[C@@]1([H])[C@@]2([H])CC(=C)C2=CC(=O)C=C[C@]12C</t>
+  </si>
+  <si>
+    <t>[H][C@](C)(NC(=O)[C@@]([H])(NC(=O)C1=NC(=NC(N)=C1C)[C@H](CC(N)=O)NC[C@H](N)C(N)=O)[C@@]([H])(OC1OC(CO)C(O)C(O)C1OC1OC(CO)C(O)C(OC(N)=O)C1O)C1=CNC=N1)[C@@H](O)[C@H](C)C(=O)N[C@]([H])(C(=O)NCCC1=NC(=CS1)C1=NC(=CS1)C(=O)NCCC[S+](C)C)[C@@]([H])(C)O</t>
+  </si>
+  <si>
+    <t>[H][C@]12[C@H](OC(=O)C3=CC=CC=C3)[C@]3(O)C[C@H](OC(=O)[C@H](O)[C@@H](NC(=O)OC(C)(C)C)C4=CC=CC=C4)C(C)=C([C@@H](OC)C(=O)[C@]1(C)[C@H](C[C@H]1OC[C@@]21OC(C)=O)OC)C3(C)C</t>
+  </si>
+  <si>
+    <t>COC1=CC(OC(C)C)=C(C=C1)C1=N[C@H]([C@H](N1C(=O)N1CCNC(=O)C1)C1=CC=C(Cl)C=C1)C1=CC=C(Cl)C=C1</t>
+  </si>
+  <si>
+    <t>OCC(C)(CO)C(=O)O[C@@H]1CC[C@@H](C[C@@H](C)[C@]2([H])CC(=O)[C@H](C)\C=C(C)\[C@@H](O)[C@@H](OC)C(=O)[C@H](C)C[C@H](C)\C=C\C=C\C=C(C)\[C@@H](OC)C[C@]3([H])CC[C@@H](C)[C@@](O)(O3)C(=O)C(=O)N3CCCC[C@H]3C(=O)O2)C[C@H]1OC</t>
+  </si>
+  <si>
+    <t>CN(C)\N=N\C1=C(N=CN1)C(N)=O</t>
+  </si>
+  <si>
+    <t>COC1=CC2=C(C(O)=C1)C(=O)C(O)=C(O2)C1=CC(O)=C(O)C=C1</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC[C@H](O)[C@@]1(C)CC[C@]1([H])C3=C(CC[C@@]21[H])C=C(O)C=C3</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)C1=CC2=CN=C(NC3=CC=C(C=N3)N3CCNCC3)N=C2N1C1CCCC1</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>C\C(\C=C\C1=C(C)CCCC1(C)C)=C/C=C/C(/C)=C/C(O)=O</t>
+  </si>
+  <si>
+    <t>OS(=O)(=O)CCS[C@H]1CCO[P@@](=O)(N1)N(CCCl)CCCl</t>
   </si>
   <si>
     <t>[H]/C1=C([H])/[C@]([H])(OC)[C@@]([H])(OC(O)=N)C(C)=C([H])[C@]([H])(C)[C@@]([H])(O)[C@]([H])(C[C@]([H])(C)CC2=C(NCC=C)C(=O)C=C(N=C(O)\C(C)=C\1/[H])C2=O)OC</t>
   </si>
   <si>
-    <t>CC[C@@]1(O)C(=O)OCC2=C1C=C1N(CC3=CC4=CC=CC=C4N=C13)C2=O</t>
-  </si>
-  <si>
-    <t>CC(C)(C#N)C1=CC(=CC(CN2C=NC=N2)=C1)C(C)(C)C#N</t>
-  </si>
-  <si>
-    <t>ClCCNC(=O)N(CCCl)N=O</t>
-  </si>
-  <si>
-    <t>NC1=NC(F)=NC2=C1N=CN2[C@@H]1O[C@H](CO)[C@@H](O)[C@@H]1O</t>
-  </si>
-  <si>
-    <t>[H][C@@]12CC[C@](O)(C(=O)CO)[C@@]1(C)C[C@H](O)[C@@]1([H])[C@@]2([H])C[C@H](C)C2=CC(=O)C=C[C@]12C</t>
-  </si>
-  <si>
-    <t>O=C(C1CCCCC1)N1CC2N(CCC3=CC=CC=C23)C(=O)C1</t>
-  </si>
-  <si>
-    <t>CN1C=NC2=C(F)C(NC3=C(Cl)C=C(Br)C=C3)=C(C=C12)C(=O)NOCCO</t>
-  </si>
-  <si>
-    <t>N#CC1=CC=C(C=C1)C(N1C=NC=N1)C1=CC=C(C=C1)C#N</t>
-  </si>
-  <si>
-    <t>CN(C)C(=O)C1=CC2=CN=C(NC3=CC=C(C=N3)N3CCNCC3)N=C2N1C1CCCC1</t>
-  </si>
-  <si>
-    <t>CCCC(CCC)C(O)=O</t>
-  </si>
-  <si>
-    <t>OCC(C)(CO)C(=O)O[C@@H]1CC[C@@H](C[C@@H](C)[C@]2([H])CC(=O)[C@H](C)\C=C(C)\[C@@H](O)[C@@H](OC)C(=O)[C@H](C)C[C@H](C)\C=C\C=C\C=C(C)\[C@@H](OC)C[C@]3([H])CC[C@@H](C)[C@@](O)(O3)C(=O)C(=O)N3CCCC[C@H]3C(=O)O2)C[C@H]1OC</t>
-  </si>
-  <si>
-    <t>C[C@H](\C=C(/C)\C=C\C(=O)NO)C(=O)C1=CC=C(C=C1)N(C)C</t>
+    <t>CN1CCN(CC1)C1=CC=C2N=C(NC2=C1)C1=C(N)C2=C(NC1=O)C=CC=C2F</t>
+  </si>
+  <si>
+    <t>C[C@H](CCCC(C)(C)O)[C@@]1([H])CC[C@@]2([H])\C(CCC[C@]12C)=C\C=C1\C[C@@H](O)C[C@H](O)C1=C</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC[C@H](C(C)=O)[C@@]1(C)CC[C@@]1([H])[C@@]2([H])CCC2=CC(=O)CC[C@]12C</t>
+  </si>
+  <si>
+    <t>COC1=CC=C2C=C3C4=CC5=C(OCO5)C=C4CC[N+]3=CC2=C1OC</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC[C@](O)(C(=O)CO)[C@@]1(C)CC(=O)[C@@]1([H])[C@@]2([H])CCC2=CC(=O)CC[C@]12C</t>
   </si>
   <si>
     <t>COC(=O)C1=CCCN(C)C1</t>
   </si>
   <si>
-    <t>CN(C)C\C=C\C(=O)NC1=C(O[C@H]2CCOC2)C=C2N=CN=C(NC3=CC(Cl)=C(F)C=C3)C2=C1</t>
-  </si>
-  <si>
-    <t>C\C(\C=C\C1=C(C)CCCC1(C)C)=C/C=C/C(/C)=C/C(O)=O</t>
-  </si>
-  <si>
-    <t>C[C@@]1(CCCN1)C1=NC2=CC=CC(C(N)=O)=C2N1</t>
-  </si>
-  <si>
-    <t>OO</t>
-  </si>
-  <si>
-    <t>[H][C@]12[C@H](OC(=O)C3=CC=CC=C3)[C@]3(O)C[C@H](OC(=O)[C@H](O)[C@@H](NC(=O)OC(C)(C)C)C4=CC=CC=C4)C(C)=C([C@@H](OC)C(=O)[C@]1(C)[C@H](C[C@H]1OC[C@@]21OC(C)=O)OC)C3(C)C</t>
-  </si>
-  <si>
-    <t>[H][C@@]12CC[C@H](O)[C@@]1(C)CC[C@]1([H])C3=C(CC[C@@]21[H])C=C(O)C=C3</t>
-  </si>
-  <si>
-    <t>COC1=CC(OC(C)C)=C(C=C1)C1=N[C@H]([C@H](N1C(=O)N1CCNC(=O)C1)C1=CC=C(Cl)C=C1)C1=CC=C(Cl)C=C1</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC2=C(NC(C)=NC2=O)C=C1)C1=CC=C(S1)C(=O)N[C@@H](CCC(O)=O)C(O)=O</t>
-  </si>
-  <si>
-    <t>CC(C)C[C@H](NC(=O)[C@@H](O)[C@H](N)CC1=CC=CC=C1)C(O)=O</t>
-  </si>
-  <si>
-    <t>C\C1=C/CC[C@@]2(C)O[C@H]2[C@H]2OC(=O)C(=C)[C@@H]2CC1</t>
-  </si>
-  <si>
-    <t>[H][C@@]12CCC(=O)[C@@]1(C)CC[C@@]1([H])[C@@]2([H])CC(=C)C2=CC(=O)C=C[C@]12C</t>
-  </si>
-  <si>
-    <t>[H][C@](C)(NC(=O)[C@@]([H])(NC(=O)C1=NC(=NC(N)=C1C)[C@H](CC(N)=O)NC[C@H](N)C(N)=O)[C@@]([H])(OC1OC(CO)C(O)C(O)C1OC1OC(CO)C(O)C(OC(N)=O)C1O)C1=CNC=N1)[C@@H](O)[C@H](C)C(=O)N[C@]([H])(C(=O)NCCC1=NC(=CS1)C1=NC(=CS1)C(=O)NCCC[S+](C)C)[C@@]([H])(C)O</t>
-  </si>
-  <si>
-    <t>O=C1NC(=O)C(N1)(C1=CC=CC=C1)C1=CC=CC=C1</t>
-  </si>
-  <si>
-    <t>CN(C)\N=N\C1=C(N=CN1)C(N)=O</t>
-  </si>
-  <si>
-    <t>[H][C@@]12CC[C@H](C(C)=O)[C@@]1(C)CC[C@@]1([H])[C@@]2([H])CCC2=CC(=O)CC[C@]12C</t>
-  </si>
-  <si>
-    <t>[H][C@@](N1CCC2=C(C1)C=CS2)(C(=O)OC)C1=CC=CC=C1Cl</t>
-  </si>
-  <si>
-    <t>CC1=CN(C=N1)C1=CC(NC(=O)C2=CC=C(C)C(NC3=NC=CC(=N3)C3=CN=CC=C3)=C2)=CC(=C1)C(F)(F)F</t>
-  </si>
-  <si>
     <t>CC(=O)N[C@H]1[C@H](O)O[C@H](CO)[C@@H](O)C1O[C@@H]1O[C@@H]([C@@H](O[C@@H]2O[C@H](CO)[C@@H](O)C(O[C@@H]3O[C@@H]([C@@H](O)[C@H](O)[C@H]3O)C(O)=O)[C@H]2NC(C)=O)[C@H](O)[C@H]1O)C(O)=O</t>
   </si>
   <si>
-    <t>CN1CCN(CC1)C1=CC(NC2=NC=C3CCC4=C(N(CCO)N=C4C(N)=O)C3=N2)=C(OC(F)(F)F)C=C1</t>
-  </si>
-  <si>
-    <t>C[C@H](CCCC(C)(C)O)[C@@]1([H])CC[C@@]2([H])\C(CCC[C@]12C)=C\C=C1\C[C@@H](O)C[C@H](O)C1=C</t>
-  </si>
-  <si>
-    <t>OC1=CC=C(C=C1)C1=COC2=C(C(O)=CC(O)=C2)C1=O</t>
-  </si>
-  <si>
-    <t>C(CC1=CNC2=CC=CC=C12)NC1=CC=C(NC2=CC=NC=C2)C=C1</t>
-  </si>
-  <si>
-    <t>OS(=O)(=O)CCS[C@H]1CCO[P@@](=O)(N1)N(CCCl)CCCl</t>
-  </si>
-  <si>
-    <t>COC1=CC2=C(C(O)=C1)C(=O)C(O)=C(O2)C1=CC(O)=C(O)C=C1</t>
-  </si>
-  <si>
-    <t>OC1=CC(O)=C2C[C@@H](OC(=O)C3=CC(O)=C(O)C(O)=C3)[C@H](OC2=C1)C1=CC(O)=C(O)C(O)=C1</t>
-  </si>
-  <si>
-    <t>COC1=CC=C2C=C3C4=CC5=C(OCO5)C=C4CC[N+]3=CC2=C1OC</t>
-  </si>
-  <si>
-    <t>OC1=CC2=C(C(O)=C1)C(=O)C(O)=C(O2)C1=CC=C(O)C(O)=C1</t>
+    <t>NC1=NC=NC2=C1C(=NN2[C@@H]1CCCN(C1)C(=O)C=C)C1=CC=C(OC2=CC=CC=C2)C=C1</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC[C@H](O)[C@@]1(C)CC[C@@]1([H])[C@@]2([H])CC[C@@]2([H])CC(=O)CC[C@]12C</t>
+  </si>
+  <si>
+    <t>[H][C@@]12CC(=C)[C@]([H])(CC[C@@]3([H])C[C@@H](C)C(=C)[C@@]([H])(C[C@]4([H])O[C@H](C[C@H](O)CN)[C@H](OC)[C@@]4([H])CC(=O)C[C@@]4([H])CC[C@]5([H])O[C@@]6([H])[C@H]7O[C@@]8(C[C@]7([H])O[C@@]6([H])[C@@]([H])(O8)[C@@]5([H])O4)CC1)O3)O2</t>
+  </si>
+  <si>
+    <t>[H]OC(=O)[C@]12CC[C@@]([H])(C(C)=C)[C@]1([H])[C@@]1([H])CC[C@]3([H])[C@@]4(C)CC[C@]([H])(O[H])C(C)(C)[C@]4([H])CC[C@@]3(C)[C@]1(C)CC2</t>
   </si>
   <si>
     <t>[H][C@]12[C@H](C[C@@H](C)C=C1C=C[C@H](C)[C@@H]2CC[C@@H]1C[C@@H](O)CC(=O)O1)OC(=O)C(C)(C)CC</t>
   </si>
   <si>
-    <t>CN1CCN(CC1)C1=CC=C2N=C(NC2=C1)C1=C(N)C2=C(NC1=O)C=CC=C2F</t>
-  </si>
-  <si>
-    <t>[H][C@@]12CC[C@](O)(C(=O)CO)[C@@]1(C)CC(=O)[C@@]1([H])[C@@]2([H])CCC2=CC(=O)CC[C@]12C</t>
-  </si>
-  <si>
     <t>COC1=CC=C2C[C@@H]3N(CCC4=CC(OC)=C(OC)C=C34)CC2=C1OC</t>
   </si>
   <si>
-    <t>NC1=NC=NC2=C1C(=NN2[C@@H]1CCCN(C1)C(=O)C=C)C1=CC=C(OC2=CC=CC=C2)C=C1</t>
-  </si>
-  <si>
-    <t>[H]OC(=O)[C@]12CC[C@@]([H])(C(C)=C)[C@]1([H])[C@@]1([H])CC[C@]3([H])[C@@]4(C)CC[C@]([H])(O[H])C(C)(C)[C@]4([H])CC[C@@]3(C)[C@]1(C)CC2</t>
-  </si>
-  <si>
-    <t>[H][C@@]12CC(=C)[C@]([H])(CC[C@@]3([H])C[C@@H](C)C(=C)[C@@]([H])(C[C@]4([H])O[C@H](C[C@H](O)CN)[C@H](OC)[C@@]4([H])CC(=O)C[C@@]4([H])CC[C@]5([H])O[C@@]6([H])[C@H]7O[C@@]8(C[C@]7([H])O[C@@]6([H])[C@@]([H])(O8)[C@@]5([H])O4)CC1)O3)O2</t>
-  </si>
-  <si>
-    <t>[H][C@@]12CC[C@H](O)[C@@]1(C)CC[C@@]1([H])[C@@]2([H])CC[C@@]2([H])CC(=O)CC[C@]12C</t>
+    <t>CC(C)[C@H](O)CC[C@@H](C)[C@H]1CC[C@H]2\C(CCC[C@]12C)=C\C=C1\C[C@@H](O)C[C@H](O)C1=C</t>
   </si>
   <si>
     <t>CN1CCN(CCOC2=CC3=C(C(NC4=C(Cl)C=CC5=C4OCO5)=NC=N3)C(OC3CCOCC3)=C2)CC1</t>
   </si>
   <si>
-    <t>CC(C)[C@H](O)CC[C@@H](C)[C@H]1CC[C@H]2\C(CCC[C@]12C)=C\C=C1\C[C@@H](O)C[C@H](O)C1=C</t>
-  </si>
-  <si>
-    <t>0.9988978</t>
-  </si>
-  <si>
-    <t>0.9981674</t>
-  </si>
-  <si>
-    <t>0.9980482</t>
-  </si>
-  <si>
-    <t>0.9965211</t>
-  </si>
-  <si>
-    <t>0.99610376</t>
-  </si>
-  <si>
-    <t>0.9944089</t>
-  </si>
-  <si>
-    <t>0.9923408</t>
-  </si>
-  <si>
-    <t>0.99014586</t>
-  </si>
-  <si>
-    <t>0.98948574</t>
-  </si>
-  <si>
-    <t>0.9862679</t>
-  </si>
-  <si>
-    <t>0.97406477</t>
-  </si>
-  <si>
-    <t>0.9737274</t>
-  </si>
-  <si>
-    <t>0.97179025</t>
-  </si>
-  <si>
-    <t>0.9511503</t>
-  </si>
-  <si>
-    <t>0.9506175</t>
-  </si>
-  <si>
-    <t>0.9407447</t>
-  </si>
-  <si>
-    <t>0.92437696</t>
-  </si>
-  <si>
-    <t>0.92239827</t>
-  </si>
-  <si>
-    <t>0.88449526</t>
-  </si>
-  <si>
-    <t>0.8758734</t>
-  </si>
-  <si>
-    <t>0.86107475</t>
-  </si>
-  <si>
-    <t>0.85962576</t>
-  </si>
-  <si>
-    <t>0.8538947</t>
-  </si>
-  <si>
-    <t>0.8192385</t>
-  </si>
-  <si>
-    <t>0.769066</t>
-  </si>
-  <si>
-    <t>0.7575893</t>
-  </si>
-  <si>
-    <t>0.7296071</t>
-  </si>
-  <si>
-    <t>0.68987805</t>
-  </si>
-  <si>
-    <t>0.63935155</t>
-  </si>
-  <si>
-    <t>0.60266966</t>
-  </si>
-  <si>
-    <t>0.566328</t>
-  </si>
-  <si>
-    <t>0.5628617</t>
-  </si>
-  <si>
-    <t>0.5516734</t>
-  </si>
-  <si>
-    <t>0.54154414</t>
-  </si>
-  <si>
-    <t>0.53707445</t>
-  </si>
-  <si>
-    <t>0.5206015</t>
-  </si>
-  <si>
-    <t>0.5165528</t>
-  </si>
-  <si>
-    <t>0.47641745</t>
-  </si>
-  <si>
-    <t>0.47421044</t>
-  </si>
-  <si>
-    <t>0.43716916</t>
-  </si>
-  <si>
-    <t>0.42657536</t>
-  </si>
-  <si>
-    <t>0.42381006</t>
-  </si>
-  <si>
-    <t>0.40109828</t>
-  </si>
-  <si>
-    <t>0.35402173</t>
-  </si>
-  <si>
-    <t>0.34343475</t>
-  </si>
-  <si>
-    <t>0.34251544</t>
-  </si>
-  <si>
-    <t>0.33296853</t>
-  </si>
-  <si>
-    <t>0.31012264</t>
-  </si>
-  <si>
-    <t>0.28819075</t>
-  </si>
-  <si>
-    <t>0.2865986</t>
-  </si>
-  <si>
-    <t>0.2503294</t>
-  </si>
-  <si>
-    <t>0.23778026</t>
-  </si>
-  <si>
-    <t>0.23502138</t>
-  </si>
-  <si>
-    <t>0.22829553</t>
-  </si>
-  <si>
-    <t>0.22522767</t>
-  </si>
-  <si>
-    <t>0.2170194</t>
-  </si>
-  <si>
-    <t>0.20932531</t>
-  </si>
-  <si>
-    <t>0.19953871</t>
-  </si>
-  <si>
-    <t>0.15606597</t>
-  </si>
-  <si>
-    <t>0.1377649</t>
-  </si>
-  <si>
-    <t>0.13296895</t>
-  </si>
-  <si>
-    <t>0.12879859</t>
-  </si>
-  <si>
-    <t>0.12370193</t>
-  </si>
-  <si>
-    <t>0.12182307</t>
-  </si>
-  <si>
-    <t>0.10236623</t>
-  </si>
-  <si>
-    <t>0.09346519</t>
-  </si>
-  <si>
-    <t>0.089513965</t>
-  </si>
-  <si>
-    <t>0.08713619</t>
-  </si>
-  <si>
-    <t>0.08702624</t>
-  </si>
-  <si>
-    <t>0.06269565</t>
-  </si>
-  <si>
-    <t>0.062035214</t>
-  </si>
-  <si>
-    <t>0.053976752</t>
-  </si>
-  <si>
-    <t>0.050518062</t>
-  </si>
-  <si>
-    <t>0.05051606</t>
-  </si>
-  <si>
-    <t>0.049359154</t>
-  </si>
-  <si>
-    <t>0.04648273</t>
-  </si>
-  <si>
-    <t>0.04461293</t>
-  </si>
-  <si>
-    <t>0.040272925</t>
-  </si>
-  <si>
-    <t>0.039325386</t>
-  </si>
-  <si>
-    <t>0.038330384</t>
-  </si>
-  <si>
-    <t>0.035820264</t>
-  </si>
-  <si>
-    <t>0.033158865</t>
-  </si>
-  <si>
-    <t>0.03313524</t>
-  </si>
-  <si>
-    <t>0.030193161</t>
-  </si>
-  <si>
-    <t>0.025927493</t>
-  </si>
-  <si>
-    <t>0.02480185</t>
-  </si>
-  <si>
-    <t>0.024493327</t>
-  </si>
-  <si>
-    <t>0.022613723</t>
-  </si>
-  <si>
-    <t>0.022041311</t>
-  </si>
-  <si>
-    <t>0.021681532</t>
-  </si>
-  <si>
-    <t>0.021650353</t>
-  </si>
-  <si>
-    <t>0.02062413</t>
-  </si>
-  <si>
-    <t>0.019926898</t>
-  </si>
-  <si>
-    <t>0.018675242</t>
-  </si>
-  <si>
-    <t>0.016953763</t>
-  </si>
-  <si>
-    <t>0.016781501</t>
-  </si>
-  <si>
-    <t>0.016657783</t>
-  </si>
-  <si>
-    <t>0.0166209</t>
-  </si>
-  <si>
-    <t>0.01603807</t>
-  </si>
-  <si>
-    <t>0.015734015</t>
-  </si>
-  <si>
-    <t>0.01556047</t>
-  </si>
-  <si>
-    <t>0.01508964</t>
-  </si>
-  <si>
-    <t>0.014087384</t>
-  </si>
-  <si>
-    <t>0.013664212</t>
-  </si>
-  <si>
-    <t>0.012516422</t>
-  </si>
-  <si>
-    <t>0.012181573</t>
-  </si>
-  <si>
-    <t>0.01187603</t>
-  </si>
-  <si>
-    <t>0.011464089</t>
-  </si>
-  <si>
-    <t>0.011362094</t>
-  </si>
-  <si>
-    <t>0.01124806</t>
-  </si>
-  <si>
-    <t>0.010852209</t>
-  </si>
-  <si>
-    <t>0.010624205</t>
-  </si>
-  <si>
-    <t>0.01006554</t>
-  </si>
-  <si>
-    <t>0.010025982</t>
-  </si>
-  <si>
-    <t>0.009815043</t>
-  </si>
-  <si>
-    <t>0.009360457</t>
-  </si>
-  <si>
-    <t>0.009275214</t>
-  </si>
-  <si>
-    <t>0.008706386</t>
-  </si>
-  <si>
-    <t>0.0084744785</t>
-  </si>
-  <si>
-    <t>0.0073476066</t>
-  </si>
-  <si>
-    <t>0.007040229</t>
-  </si>
-  <si>
-    <t>0.0067413095</t>
-  </si>
-  <si>
-    <t>0.0062867524</t>
-  </si>
-  <si>
-    <t>0.0056721237</t>
-  </si>
-  <si>
-    <t>0.0048685353</t>
-  </si>
-  <si>
-    <t>0.0043833936</t>
-  </si>
-  <si>
-    <t>0.0039449497</t>
-  </si>
-  <si>
-    <t>0.0037695693</t>
-  </si>
-  <si>
-    <t>0.00368524</t>
-  </si>
-  <si>
-    <t>0.0034052215</t>
-  </si>
-  <si>
-    <t>0.0023373966</t>
-  </si>
-  <si>
-    <t>0.002049918</t>
-  </si>
-  <si>
-    <t>0.0016360165</t>
+    <t>0.9988</t>
+  </si>
+  <si>
+    <t>0.9981</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>0.9965</t>
+  </si>
+  <si>
+    <t>0.9961</t>
+  </si>
+  <si>
+    <t>0.9952</t>
+  </si>
+  <si>
+    <t>0.9936</t>
+  </si>
+  <si>
+    <t>0.9862</t>
+  </si>
+  <si>
+    <t>0.9853</t>
+  </si>
+  <si>
+    <t>0.9846</t>
+  </si>
+  <si>
+    <t>0.9845</t>
+  </si>
+  <si>
+    <t>0.9819</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>0.9747</t>
+  </si>
+  <si>
+    <t>0.9699</t>
+  </si>
+  <si>
+    <t>0.9682</t>
+  </si>
+  <si>
+    <t>0.9651</t>
+  </si>
+  <si>
+    <t>0.9599</t>
+  </si>
+  <si>
+    <t>0.9548</t>
+  </si>
+  <si>
+    <t>0.9494</t>
+  </si>
+  <si>
+    <t>0.9385</t>
+  </si>
+  <si>
+    <t>0.9325</t>
+  </si>
+  <si>
+    <t>0.9064</t>
+  </si>
+  <si>
+    <t>0.9031</t>
+  </si>
+  <si>
+    <t>0.8904</t>
+  </si>
+  <si>
+    <t>0.8886</t>
+  </si>
+  <si>
+    <t>0.8879</t>
+  </si>
+  <si>
+    <t>0.8835</t>
+  </si>
+  <si>
+    <t>0.8774</t>
+  </si>
+  <si>
+    <t>0.8718</t>
+  </si>
+  <si>
+    <t>0.8588</t>
+  </si>
+  <si>
+    <t>0.8569</t>
+  </si>
+  <si>
+    <t>0.8554</t>
+  </si>
+  <si>
+    <t>0.8523</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.8489</t>
+  </si>
+  <si>
+    <t>0.8367</t>
+  </si>
+  <si>
+    <t>0.8317</t>
+  </si>
+  <si>
+    <t>0.8309</t>
+  </si>
+  <si>
+    <t>0.8308</t>
+  </si>
+  <si>
+    <t>0.828</t>
+  </si>
+  <si>
+    <t>0.823</t>
+  </si>
+  <si>
+    <t>0.8184</t>
+  </si>
+  <si>
+    <t>0.8137</t>
+  </si>
+  <si>
+    <t>0.8071</t>
+  </si>
+  <si>
+    <t>0.8037</t>
+  </si>
+  <si>
+    <t>0.7944</t>
+  </si>
+  <si>
+    <t>0.7847</t>
+  </si>
+  <si>
+    <t>0.7832</t>
+  </si>
+  <si>
+    <t>0.7689</t>
+  </si>
+  <si>
+    <t>0.7683</t>
+  </si>
+  <si>
+    <t>0.7654</t>
+  </si>
+  <si>
+    <t>0.7605</t>
+  </si>
+  <si>
+    <t>0.7444</t>
+  </si>
+  <si>
+    <t>0.7439</t>
+  </si>
+  <si>
+    <t>0.7323</t>
+  </si>
+  <si>
+    <t>0.7265</t>
+  </si>
+  <si>
+    <t>0.7189</t>
+  </si>
+  <si>
+    <t>0.7171</t>
+  </si>
+  <si>
+    <t>0.7151</t>
+  </si>
+  <si>
+    <t>0.7145</t>
+  </si>
+  <si>
+    <t>0.7089</t>
+  </si>
+  <si>
+    <t>0.6976</t>
+  </si>
+  <si>
+    <t>0.6946</t>
+  </si>
+  <si>
+    <t>0.6695</t>
+  </si>
+  <si>
+    <t>0.662</t>
+  </si>
+  <si>
+    <t>0.6561</t>
+  </si>
+  <si>
+    <t>0.6526</t>
+  </si>
+  <si>
+    <t>0.628</t>
+  </si>
+  <si>
+    <t>0.6197</t>
+  </si>
+  <si>
+    <t>0.5821</t>
+  </si>
+  <si>
+    <t>0.5771</t>
+  </si>
+  <si>
+    <t>0.5715</t>
+  </si>
+  <si>
+    <t>0.5636</t>
+  </si>
+  <si>
+    <t>0.5456</t>
+  </si>
+  <si>
+    <t>0.5416</t>
+  </si>
+  <si>
+    <t>0.5378</t>
+  </si>
+  <si>
+    <t>0.5218</t>
+  </si>
+  <si>
+    <t>0.507</t>
+  </si>
+  <si>
+    <t>0.5023</t>
+  </si>
+  <si>
+    <t>0.4968</t>
+  </si>
+  <si>
+    <t>0.4943</t>
+  </si>
+  <si>
+    <t>0.4739</t>
+  </si>
+  <si>
+    <t>0.4721</t>
+  </si>
+  <si>
+    <t>0.4635</t>
+  </si>
+  <si>
+    <t>0.4632</t>
+  </si>
+  <si>
+    <t>0.4433</t>
+  </si>
+  <si>
+    <t>0.4411</t>
+  </si>
+  <si>
+    <t>0.4217</t>
+  </si>
+  <si>
+    <t>0.412</t>
+  </si>
+  <si>
+    <t>0.3985</t>
+  </si>
+  <si>
+    <t>0.3954</t>
+  </si>
+  <si>
+    <t>0.3894</t>
+  </si>
+  <si>
+    <t>0.3621</t>
+  </si>
+  <si>
+    <t>0.3592</t>
+  </si>
+  <si>
+    <t>0.3434</t>
+  </si>
+  <si>
+    <t>0.3385</t>
+  </si>
+  <si>
+    <t>0.3339</t>
+  </si>
+  <si>
+    <t>0.321</t>
+  </si>
+  <si>
+    <t>0.3152</t>
+  </si>
+  <si>
+    <t>0.3119</t>
+  </si>
+  <si>
+    <t>0.3063</t>
+  </si>
+  <si>
+    <t>0.306</t>
+  </si>
+  <si>
+    <t>0.3038</t>
+  </si>
+  <si>
+    <t>0.3023</t>
+  </si>
+  <si>
+    <t>0.2998</t>
+  </si>
+  <si>
+    <t>0.2978</t>
+  </si>
+  <si>
+    <t>0.2945</t>
+  </si>
+  <si>
+    <t>0.2778</t>
+  </si>
+  <si>
+    <t>0.2759</t>
+  </si>
+  <si>
+    <t>0.2758</t>
+  </si>
+  <si>
+    <t>0.2475</t>
+  </si>
+  <si>
+    <t>0.2422</t>
+  </si>
+  <si>
+    <t>0.2397</t>
+  </si>
+  <si>
+    <t>0.2102</t>
+  </si>
+  <si>
+    <t>0.2033</t>
+  </si>
+  <si>
+    <t>0.1993</t>
+  </si>
+  <si>
+    <t>0.1973</t>
+  </si>
+  <si>
+    <t>0.1881</t>
+  </si>
+  <si>
+    <t>0.1708</t>
+  </si>
+  <si>
+    <t>0.1392</t>
+  </si>
+  <si>
+    <t>0.1275</t>
+  </si>
+  <si>
+    <t>0.1263</t>
+  </si>
+  <si>
+    <t>0.0931</t>
+  </si>
+  <si>
+    <t>0.087</t>
+  </si>
+  <si>
+    <t>0.0615</t>
+  </si>
+  <si>
+    <t>0.0468</t>
+  </si>
+  <si>
+    <t>0.9944</t>
+  </si>
+  <si>
+    <t>0.9923</t>
+  </si>
+  <si>
+    <t>0.9901</t>
+  </si>
+  <si>
+    <t>0.9894</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>0.9737</t>
+  </si>
+  <si>
+    <t>0.9717</t>
+  </si>
+  <si>
+    <t>0.9511</t>
+  </si>
+  <si>
+    <t>0.9506</t>
+  </si>
+  <si>
+    <t>0.9407</t>
+  </si>
+  <si>
+    <t>0.9243</t>
+  </si>
+  <si>
+    <t>0.9223</t>
+  </si>
+  <si>
+    <t>0.8844</t>
+  </si>
+  <si>
+    <t>0.8758</t>
+  </si>
+  <si>
+    <t>0.861</t>
+  </si>
+  <si>
+    <t>0.8596</t>
+  </si>
+  <si>
+    <t>0.8538</t>
+  </si>
+  <si>
+    <t>0.8192</t>
+  </si>
+  <si>
+    <t>0.769</t>
+  </si>
+  <si>
+    <t>0.7575</t>
+  </si>
+  <si>
+    <t>0.7296</t>
+  </si>
+  <si>
+    <t>0.6898</t>
+  </si>
+  <si>
+    <t>0.6393</t>
+  </si>
+  <si>
+    <t>0.6026</t>
+  </si>
+  <si>
+    <t>0.5663</t>
+  </si>
+  <si>
+    <t>0.5628</t>
+  </si>
+  <si>
+    <t>0.5516</t>
+  </si>
+  <si>
+    <t>0.5415</t>
+  </si>
+  <si>
+    <t>0.537</t>
+  </si>
+  <si>
+    <t>0.5206</t>
+  </si>
+  <si>
+    <t>0.5165</t>
+  </si>
+  <si>
+    <t>0.4764</t>
+  </si>
+  <si>
+    <t>0.4742</t>
+  </si>
+  <si>
+    <t>0.4371</t>
+  </si>
+  <si>
+    <t>0.4265</t>
+  </si>
+  <si>
+    <t>0.4238</t>
+  </si>
+  <si>
+    <t>0.401</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.3425</t>
+  </si>
+  <si>
+    <t>0.3329</t>
+  </si>
+  <si>
+    <t>0.3101</t>
+  </si>
+  <si>
+    <t>0.2881</t>
+  </si>
+  <si>
+    <t>0.2865</t>
+  </si>
+  <si>
+    <t>0.2503</t>
+  </si>
+  <si>
+    <t>0.2377</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>0.2282</t>
+  </si>
+  <si>
+    <t>0.2252</t>
+  </si>
+  <si>
+    <t>0.217</t>
+  </si>
+  <si>
+    <t>0.2093</t>
+  </si>
+  <si>
+    <t>0.1995</t>
+  </si>
+  <si>
+    <t>0.156</t>
+  </si>
+  <si>
+    <t>0.1377</t>
+  </si>
+  <si>
+    <t>0.1329</t>
+  </si>
+  <si>
+    <t>0.1287</t>
+  </si>
+  <si>
+    <t>0.1237</t>
+  </si>
+  <si>
+    <t>0.1218</t>
+  </si>
+  <si>
+    <t>0.1023</t>
+  </si>
+  <si>
+    <t>0.0934</t>
+  </si>
+  <si>
+    <t>0.0895</t>
+  </si>
+  <si>
+    <t>0.0871</t>
+  </si>
+  <si>
+    <t>0.0626</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>0.0539</t>
+  </si>
+  <si>
+    <t>0.0505</t>
+  </si>
+  <si>
+    <t>0.0493</t>
+  </si>
+  <si>
+    <t>0.0464</t>
+  </si>
+  <si>
+    <t>0.0446</t>
+  </si>
+  <si>
+    <t>0.0402</t>
+  </si>
+  <si>
+    <t>0.0393</t>
+  </si>
+  <si>
+    <t>0.0383</t>
+  </si>
+  <si>
+    <t>0.0358</t>
+  </si>
+  <si>
+    <t>0.0331</t>
+  </si>
+  <si>
+    <t>0.0301</t>
+  </si>
+  <si>
+    <t>0.0259</t>
+  </si>
+  <si>
+    <t>0.0248</t>
+  </si>
+  <si>
+    <t>0.0244</t>
+  </si>
+  <si>
+    <t>0.0226</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.0216</t>
+  </si>
+  <si>
+    <t>0.0206</t>
+  </si>
+  <si>
+    <t>0.0199</t>
+  </si>
+  <si>
+    <t>0.0186</t>
+  </si>
+  <si>
+    <t>0.0169</t>
+  </si>
+  <si>
+    <t>0.0167</t>
+  </si>
+  <si>
+    <t>0.0166</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>0.0157</t>
+  </si>
+  <si>
+    <t>0.0155</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0.0136</t>
+  </si>
+  <si>
+    <t>0.0125</t>
+  </si>
+  <si>
+    <t>0.0121</t>
+  </si>
+  <si>
+    <t>0.0118</t>
+  </si>
+  <si>
+    <t>0.0114</t>
+  </si>
+  <si>
+    <t>0.0113</t>
+  </si>
+  <si>
+    <t>0.0112</t>
+  </si>
+  <si>
+    <t>0.0108</t>
+  </si>
+  <si>
+    <t>0.0106</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.0098</t>
+  </si>
+  <si>
+    <t>0.0093</t>
+  </si>
+  <si>
+    <t>0.0092</t>
+  </si>
+  <si>
+    <t>0.0087</t>
+  </si>
+  <si>
+    <t>0.0084</t>
+  </si>
+  <si>
+    <t>0.0073</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.0067</t>
+  </si>
+  <si>
+    <t>0.0062</t>
+  </si>
+  <si>
+    <t>0.0056</t>
+  </si>
+  <si>
+    <t>0.0048</t>
+  </si>
+  <si>
+    <t>0.0043</t>
+  </si>
+  <si>
+    <t>0.0039</t>
+  </si>
+  <si>
+    <t>0.0037</t>
+  </si>
+  <si>
+    <t>0.0036</t>
+  </si>
+  <si>
+    <t>0.0034</t>
+  </si>
+  <si>
+    <t>0.0023</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>0.0016</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1648,13 +1990,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
         <v>267</v>
@@ -1662,13 +2004,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
         <v>268</v>
@@ -1676,13 +2018,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
         <v>269</v>
@@ -1690,13 +2032,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
         <v>270</v>
@@ -1704,13 +2046,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
         <v>271</v>
@@ -1718,13 +2060,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s">
         <v>272</v>
@@ -1732,13 +2074,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
         <v>273</v>
@@ -1746,13 +2088,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
         <v>274</v>
@@ -1760,13 +2102,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
         <v>275</v>
@@ -1774,13 +2116,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
         <v>276</v>
@@ -1788,13 +2130,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
         <v>277</v>
@@ -1802,13 +2144,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
         <v>278</v>
@@ -1816,13 +2158,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
         <v>279</v>
@@ -1830,13 +2172,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
         <v>280</v>
@@ -1844,13 +2186,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D21" t="s">
         <v>281</v>
@@ -1858,13 +2200,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D22" t="s">
         <v>282</v>
@@ -1872,13 +2214,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
         <v>283</v>
@@ -1886,13 +2228,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
         <v>284</v>
@@ -1900,13 +2242,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
         <v>285</v>
@@ -1914,13 +2256,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
         <v>286</v>
@@ -1928,13 +2270,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D27" t="s">
         <v>287</v>
@@ -1942,13 +2284,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
         <v>288</v>
@@ -1956,13 +2298,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
         <v>289</v>
@@ -1970,13 +2312,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s">
         <v>290</v>
@@ -1984,13 +2326,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
         <v>291</v>
@@ -1998,13 +2340,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
         <v>292</v>
@@ -2012,13 +2354,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s">
         <v>293</v>
@@ -2026,13 +2368,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D34" t="s">
         <v>294</v>
@@ -2040,13 +2382,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
         <v>295</v>
@@ -2054,13 +2396,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
         <v>296</v>
@@ -2068,13 +2410,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D37" t="s">
         <v>297</v>
@@ -2082,13 +2424,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D38" t="s">
         <v>298</v>
@@ -2096,13 +2438,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
         <v>299</v>
@@ -2110,13 +2452,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D40" t="s">
         <v>300</v>
@@ -2124,13 +2466,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D41" t="s">
         <v>301</v>
@@ -2138,13 +2480,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
         <v>302</v>
@@ -2152,13 +2494,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
         <v>303</v>
@@ -2166,13 +2508,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
         <v>304</v>
@@ -2180,13 +2522,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s">
         <v>305</v>
@@ -2194,13 +2536,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
         <v>306</v>
@@ -2208,13 +2550,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
         <v>307</v>
@@ -2222,13 +2564,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D48" t="s">
         <v>308</v>
@@ -2236,13 +2578,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
         <v>309</v>
@@ -2250,13 +2592,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D50" t="s">
         <v>310</v>
@@ -2264,13 +2606,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D51" t="s">
         <v>311</v>
@@ -2278,13 +2620,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D52" t="s">
         <v>312</v>
@@ -2292,13 +2634,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D53" t="s">
         <v>313</v>
@@ -2306,13 +2648,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D54" t="s">
         <v>314</v>
@@ -2320,13 +2662,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D55" t="s">
         <v>315</v>
@@ -2334,13 +2676,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D56" t="s">
         <v>316</v>
@@ -2348,13 +2690,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D57" t="s">
         <v>317</v>
@@ -2362,13 +2704,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D58" t="s">
         <v>318</v>
@@ -2376,13 +2718,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D59" t="s">
         <v>319</v>
@@ -2390,13 +2732,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D60" t="s">
         <v>320</v>
@@ -2404,13 +2746,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D61" t="s">
         <v>321</v>
@@ -2418,13 +2760,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D62" t="s">
         <v>322</v>
@@ -2432,13 +2774,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D63" t="s">
         <v>323</v>
@@ -2446,13 +2788,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D64" t="s">
         <v>324</v>
@@ -2460,13 +2802,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D65" t="s">
         <v>325</v>
@@ -2474,13 +2816,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D66" t="s">
         <v>326</v>
@@ -2488,13 +2830,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D67" t="s">
         <v>327</v>
@@ -2502,13 +2844,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D68" t="s">
         <v>328</v>
@@ -2516,13 +2858,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D69" t="s">
         <v>329</v>
@@ -2530,13 +2872,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D70" t="s">
         <v>330</v>
@@ -2544,13 +2886,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D71" t="s">
         <v>331</v>
@@ -2558,13 +2900,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D72" t="s">
         <v>332</v>
@@ -2572,13 +2914,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D73" t="s">
         <v>333</v>
@@ -2586,13 +2928,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D74" t="s">
         <v>334</v>
@@ -2600,13 +2942,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D75" t="s">
         <v>335</v>
@@ -2614,13 +2956,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D76" t="s">
         <v>336</v>
@@ -2628,13 +2970,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D77" t="s">
         <v>337</v>
@@ -2642,13 +2984,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D78" t="s">
         <v>338</v>
@@ -2656,13 +2998,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D79" t="s">
         <v>339</v>
@@ -2670,13 +3012,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D80" t="s">
         <v>340</v>
@@ -2684,13 +3026,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D81" t="s">
         <v>341</v>
@@ -2698,13 +3040,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D82" t="s">
         <v>342</v>
@@ -2712,13 +3054,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D83" t="s">
         <v>343</v>
@@ -2726,13 +3068,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D84" t="s">
         <v>344</v>
@@ -2740,13 +3082,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D85" t="s">
         <v>345</v>
@@ -2754,13 +3096,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D86" t="s">
         <v>346</v>
@@ -2768,13 +3110,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D87" t="s">
         <v>347</v>
@@ -2782,13 +3124,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D88" t="s">
         <v>348</v>
@@ -2796,13 +3138,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D89" t="s">
         <v>349</v>
@@ -2810,13 +3152,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D90" t="s">
         <v>350</v>
@@ -2824,13 +3166,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D91" t="s">
         <v>351</v>
@@ -2838,13 +3180,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D92" t="s">
         <v>352</v>
@@ -2852,13 +3194,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D93" t="s">
         <v>353</v>
@@ -2866,13 +3208,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D94" t="s">
         <v>354</v>
@@ -2880,13 +3222,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D95" t="s">
         <v>355</v>
@@ -2894,13 +3236,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D96" t="s">
         <v>356</v>
@@ -2908,13 +3250,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D97" t="s">
         <v>357</v>
@@ -2922,13 +3264,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D98" t="s">
         <v>358</v>
@@ -2936,13 +3278,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D99" t="s">
         <v>359</v>
@@ -2950,13 +3292,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D100" t="s">
         <v>360</v>
@@ -2964,13 +3306,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D101" t="s">
         <v>361</v>
@@ -2978,13 +3320,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D102" t="s">
         <v>362</v>
@@ -2992,13 +3334,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D103" t="s">
         <v>363</v>
@@ -3006,13 +3348,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D104" t="s">
         <v>364</v>
@@ -3020,13 +3362,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D105" t="s">
         <v>365</v>
@@ -3034,13 +3376,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D106" t="s">
         <v>366</v>
@@ -3048,13 +3390,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D107" t="s">
         <v>367</v>
@@ -3062,13 +3404,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D108" t="s">
         <v>368</v>
@@ -3076,13 +3418,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D109" t="s">
         <v>369</v>
@@ -3090,13 +3432,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D110" t="s">
         <v>370</v>
@@ -3104,13 +3446,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D111" t="s">
         <v>371</v>
@@ -3118,13 +3460,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D112" t="s">
         <v>372</v>
@@ -3132,13 +3474,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D113" t="s">
         <v>373</v>
@@ -3146,13 +3488,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C114" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D114" t="s">
         <v>374</v>
@@ -3160,212 +3502,212 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D115" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D116" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D117" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D118" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D119" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D120" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C121" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D121" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C122" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D122" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C123" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D123" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D124" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C125" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D125" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D126" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C127" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D127" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D128" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D129" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3373,13 +3715,13 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>257</v>
+        <v>134</v>
       </c>
       <c r="D130" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3387,13 +3729,13 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>258</v>
+        <v>136</v>
       </c>
       <c r="D131" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3401,13 +3743,13 @@
         <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c r="D132" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3415,13 +3757,13 @@
         <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="D133" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3429,13 +3771,1735 @@
         <v>5</v>
       </c>
       <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" t="s">
+        <v>144</v>
+      </c>
+      <c r="D136" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>138</v>
+      </c>
+      <c r="D137" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>146</v>
+      </c>
+      <c r="D138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" t="s">
+        <v>147</v>
+      </c>
+      <c r="D142" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" t="s">
+        <v>150</v>
+      </c>
+      <c r="D143" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>143</v>
+      </c>
+      <c r="D144" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" t="s">
+        <v>152</v>
+      </c>
+      <c r="D145" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" t="s">
+        <v>148</v>
+      </c>
+      <c r="D146" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" t="s">
+        <v>153</v>
+      </c>
+      <c r="D147" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" t="s">
+        <v>145</v>
+      </c>
+      <c r="D148" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" t="s">
+        <v>154</v>
+      </c>
+      <c r="D149" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>28</v>
+      </c>
+      <c r="C150" t="s">
+        <v>156</v>
+      </c>
+      <c r="D150" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>29</v>
+      </c>
+      <c r="C151" t="s">
+        <v>157</v>
+      </c>
+      <c r="D151" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" t="s">
+        <v>151</v>
+      </c>
+      <c r="D152" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>32</v>
+      </c>
+      <c r="C153" t="s">
+        <v>160</v>
+      </c>
+      <c r="D153" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" t="s">
+        <v>48</v>
+      </c>
+      <c r="C154" t="s">
+        <v>176</v>
+      </c>
+      <c r="D154" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>45</v>
+      </c>
+      <c r="C155" t="s">
+        <v>173</v>
+      </c>
+      <c r="D155" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" t="s">
+        <v>155</v>
+      </c>
+      <c r="D156" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" t="s">
+        <v>55</v>
+      </c>
+      <c r="C157" t="s">
+        <v>183</v>
+      </c>
+      <c r="D157" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>38</v>
+      </c>
+      <c r="C158" t="s">
+        <v>166</v>
+      </c>
+      <c r="D158" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>31</v>
+      </c>
+      <c r="C159" t="s">
+        <v>159</v>
+      </c>
+      <c r="D159" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>30</v>
+      </c>
+      <c r="C160" t="s">
+        <v>158</v>
+      </c>
+      <c r="D160" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" t="s">
+        <v>180</v>
+      </c>
+      <c r="D161" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" t="s">
+        <v>39</v>
+      </c>
+      <c r="C162" t="s">
+        <v>167</v>
+      </c>
+      <c r="D162" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" t="s">
+        <v>71</v>
+      </c>
+      <c r="C163" t="s">
+        <v>199</v>
+      </c>
+      <c r="D163" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" t="s">
+        <v>43</v>
+      </c>
+      <c r="C164" t="s">
+        <v>171</v>
+      </c>
+      <c r="D164" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" t="s">
+        <v>40</v>
+      </c>
+      <c r="C165" t="s">
+        <v>168</v>
+      </c>
+      <c r="D165" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" t="s">
+        <v>54</v>
+      </c>
+      <c r="C166" t="s">
+        <v>182</v>
+      </c>
+      <c r="D166" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" t="s">
+        <v>66</v>
+      </c>
+      <c r="C167" t="s">
+        <v>194</v>
+      </c>
+      <c r="D167" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" t="s">
+        <v>46</v>
+      </c>
+      <c r="C168" t="s">
+        <v>174</v>
+      </c>
+      <c r="D168" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" t="s">
+        <v>33</v>
+      </c>
+      <c r="C169" t="s">
+        <v>161</v>
+      </c>
+      <c r="D169" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170" t="s">
+        <v>162</v>
+      </c>
+      <c r="D170" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" t="s">
+        <v>49</v>
+      </c>
+      <c r="C171" t="s">
+        <v>177</v>
+      </c>
+      <c r="D171" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" t="s">
+        <v>42</v>
+      </c>
+      <c r="C172" t="s">
+        <v>170</v>
+      </c>
+      <c r="D172" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" t="s">
+        <v>65</v>
+      </c>
+      <c r="C173" t="s">
+        <v>193</v>
+      </c>
+      <c r="D173" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
+        <v>37</v>
+      </c>
+      <c r="C174" t="s">
+        <v>165</v>
+      </c>
+      <c r="D174" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" t="s">
+        <v>57</v>
+      </c>
+      <c r="C175" t="s">
+        <v>185</v>
+      </c>
+      <c r="D175" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>47</v>
+      </c>
+      <c r="C176" t="s">
+        <v>175</v>
+      </c>
+      <c r="D176" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" t="s">
+        <v>41</v>
+      </c>
+      <c r="C177" t="s">
+        <v>169</v>
+      </c>
+      <c r="D177" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" t="s">
+        <v>36</v>
+      </c>
+      <c r="C178" t="s">
+        <v>164</v>
+      </c>
+      <c r="D178" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" t="s">
+        <v>51</v>
+      </c>
+      <c r="C179" t="s">
+        <v>179</v>
+      </c>
+      <c r="D179" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
+        <v>58</v>
+      </c>
+      <c r="C180" t="s">
+        <v>186</v>
+      </c>
+      <c r="D180" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" t="s">
+        <v>60</v>
+      </c>
+      <c r="C181" t="s">
+        <v>188</v>
+      </c>
+      <c r="D181" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>35</v>
+      </c>
+      <c r="C182" t="s">
+        <v>163</v>
+      </c>
+      <c r="D182" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>69</v>
+      </c>
+      <c r="C183" t="s">
+        <v>197</v>
+      </c>
+      <c r="D183" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
+        <v>68</v>
+      </c>
+      <c r="C184" t="s">
+        <v>196</v>
+      </c>
+      <c r="D184" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>72</v>
+      </c>
+      <c r="C185" t="s">
+        <v>200</v>
+      </c>
+      <c r="D185" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>62</v>
+      </c>
+      <c r="C186" t="s">
+        <v>190</v>
+      </c>
+      <c r="D186" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" t="s">
+        <v>73</v>
+      </c>
+      <c r="C187" t="s">
+        <v>201</v>
+      </c>
+      <c r="D187" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" t="s">
+        <v>53</v>
+      </c>
+      <c r="C188" t="s">
+        <v>181</v>
+      </c>
+      <c r="D188" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" t="s">
+        <v>50</v>
+      </c>
+      <c r="C189" t="s">
+        <v>178</v>
+      </c>
+      <c r="D189" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" t="s">
+        <v>56</v>
+      </c>
+      <c r="C190" t="s">
+        <v>184</v>
+      </c>
+      <c r="D190" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" t="s">
+        <v>64</v>
+      </c>
+      <c r="C191" t="s">
+        <v>192</v>
+      </c>
+      <c r="D191" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" t="s">
+        <v>61</v>
+      </c>
+      <c r="C192" t="s">
+        <v>189</v>
+      </c>
+      <c r="D192" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" t="s">
+        <v>44</v>
+      </c>
+      <c r="C193" t="s">
+        <v>172</v>
+      </c>
+      <c r="D193" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" t="s">
+        <v>86</v>
+      </c>
+      <c r="C194" t="s">
+        <v>214</v>
+      </c>
+      <c r="D194" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" t="s">
+        <v>59</v>
+      </c>
+      <c r="C195" t="s">
+        <v>187</v>
+      </c>
+      <c r="D195" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" t="s">
+        <v>98</v>
+      </c>
+      <c r="C196" t="s">
+        <v>226</v>
+      </c>
+      <c r="D196" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" t="s">
+        <v>70</v>
+      </c>
+      <c r="C197" t="s">
+        <v>198</v>
+      </c>
+      <c r="D197" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>74</v>
+      </c>
+      <c r="C198" t="s">
+        <v>202</v>
+      </c>
+      <c r="D198" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" t="s">
+        <v>75</v>
+      </c>
+      <c r="C199" t="s">
+        <v>203</v>
+      </c>
+      <c r="D199" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" t="s">
+        <v>63</v>
+      </c>
+      <c r="C200" t="s">
+        <v>191</v>
+      </c>
+      <c r="D200" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" t="s">
+        <v>81</v>
+      </c>
+      <c r="C201" t="s">
+        <v>209</v>
+      </c>
+      <c r="D201" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" t="s">
+        <v>76</v>
+      </c>
+      <c r="C202" t="s">
+        <v>204</v>
+      </c>
+      <c r="D202" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" t="s">
+        <v>77</v>
+      </c>
+      <c r="C203" t="s">
+        <v>205</v>
+      </c>
+      <c r="D203" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" t="s">
+        <v>67</v>
+      </c>
+      <c r="C204" t="s">
+        <v>195</v>
+      </c>
+      <c r="D204" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>78</v>
+      </c>
+      <c r="C205" t="s">
+        <v>206</v>
+      </c>
+      <c r="D205" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" t="s">
+        <v>80</v>
+      </c>
+      <c r="C206" t="s">
+        <v>208</v>
+      </c>
+      <c r="D206" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" t="s">
+        <v>118</v>
+      </c>
+      <c r="C207" t="s">
+        <v>246</v>
+      </c>
+      <c r="D207" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" t="s">
+        <v>79</v>
+      </c>
+      <c r="C208" t="s">
+        <v>207</v>
+      </c>
+      <c r="D208" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" t="s">
+        <v>88</v>
+      </c>
+      <c r="C209" t="s">
+        <v>216</v>
+      </c>
+      <c r="D209" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" t="s">
+        <v>82</v>
+      </c>
+      <c r="C210" t="s">
+        <v>210</v>
+      </c>
+      <c r="D210" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" t="s">
+        <v>84</v>
+      </c>
+      <c r="C211" t="s">
+        <v>212</v>
+      </c>
+      <c r="D211" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" t="s">
+        <v>85</v>
+      </c>
+      <c r="C212" t="s">
+        <v>213</v>
+      </c>
+      <c r="D212" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>92</v>
+      </c>
+      <c r="C213" t="s">
+        <v>220</v>
+      </c>
+      <c r="D213" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>87</v>
+      </c>
+      <c r="C214" t="s">
+        <v>215</v>
+      </c>
+      <c r="D214" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" t="s">
+        <v>83</v>
+      </c>
+      <c r="C215" t="s">
+        <v>211</v>
+      </c>
+      <c r="D215" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" t="s">
+        <v>114</v>
+      </c>
+      <c r="C216" t="s">
+        <v>242</v>
+      </c>
+      <c r="D216" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" t="s">
+        <v>91</v>
+      </c>
+      <c r="C217" t="s">
+        <v>219</v>
+      </c>
+      <c r="D217" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" t="s">
+        <v>110</v>
+      </c>
+      <c r="C218" t="s">
+        <v>238</v>
+      </c>
+      <c r="D218" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" t="s">
+        <v>95</v>
+      </c>
+      <c r="C219" t="s">
+        <v>223</v>
+      </c>
+      <c r="D219" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" t="s">
+        <v>124</v>
+      </c>
+      <c r="C220" t="s">
+        <v>252</v>
+      </c>
+      <c r="D220" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" t="s">
+        <v>97</v>
+      </c>
+      <c r="C221" t="s">
+        <v>225</v>
+      </c>
+      <c r="D221" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" t="s">
+        <v>116</v>
+      </c>
+      <c r="C222" t="s">
+        <v>244</v>
+      </c>
+      <c r="D222" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" t="s">
+        <v>100</v>
+      </c>
+      <c r="C223" t="s">
+        <v>228</v>
+      </c>
+      <c r="D223" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" t="s">
+        <v>115</v>
+      </c>
+      <c r="C224" t="s">
+        <v>243</v>
+      </c>
+      <c r="D224" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" t="s">
+        <v>108</v>
+      </c>
+      <c r="C225" t="s">
+        <v>236</v>
+      </c>
+      <c r="D225" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" t="s">
+        <v>113</v>
+      </c>
+      <c r="C226" t="s">
+        <v>241</v>
+      </c>
+      <c r="D226" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" t="s">
+        <v>109</v>
+      </c>
+      <c r="C227" t="s">
+        <v>237</v>
+      </c>
+      <c r="D227" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" t="s">
+        <v>96</v>
+      </c>
+      <c r="C228" t="s">
+        <v>224</v>
+      </c>
+      <c r="D228" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" t="s">
+        <v>94</v>
+      </c>
+      <c r="C229" t="s">
+        <v>222</v>
+      </c>
+      <c r="D229" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" t="s">
+        <v>99</v>
+      </c>
+      <c r="C230" t="s">
+        <v>227</v>
+      </c>
+      <c r="D230" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" t="s">
+        <v>106</v>
+      </c>
+      <c r="C231" t="s">
+        <v>234</v>
+      </c>
+      <c r="D231" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" t="s">
+        <v>107</v>
+      </c>
+      <c r="C232" t="s">
+        <v>235</v>
+      </c>
+      <c r="D232" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" t="s">
+        <v>90</v>
+      </c>
+      <c r="C233" t="s">
+        <v>218</v>
+      </c>
+      <c r="D233" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" t="s">
+        <v>111</v>
+      </c>
+      <c r="C234" t="s">
+        <v>239</v>
+      </c>
+      <c r="D234" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" t="s">
+        <v>121</v>
+      </c>
+      <c r="C235" t="s">
+        <v>249</v>
+      </c>
+      <c r="D235" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" t="s">
+        <v>103</v>
+      </c>
+      <c r="C236" t="s">
+        <v>231</v>
+      </c>
+      <c r="D236" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" t="s">
+        <v>89</v>
+      </c>
+      <c r="C237" t="s">
+        <v>217</v>
+      </c>
+      <c r="D237" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" t="s">
+        <v>125</v>
+      </c>
+      <c r="C238" t="s">
+        <v>253</v>
+      </c>
+      <c r="D238" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" t="s">
+        <v>102</v>
+      </c>
+      <c r="C239" t="s">
+        <v>230</v>
+      </c>
+      <c r="D239" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" t="s">
+        <v>120</v>
+      </c>
+      <c r="C240" t="s">
+        <v>248</v>
+      </c>
+      <c r="D240" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" t="s">
+        <v>93</v>
+      </c>
+      <c r="C241" t="s">
+        <v>221</v>
+      </c>
+      <c r="D241" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" t="s">
+        <v>104</v>
+      </c>
+      <c r="C242" t="s">
+        <v>232</v>
+      </c>
+      <c r="D242" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" t="s">
+        <v>117</v>
+      </c>
+      <c r="C243" t="s">
+        <v>245</v>
+      </c>
+      <c r="D243" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" t="s">
+        <v>112</v>
+      </c>
+      <c r="C244" t="s">
+        <v>240</v>
+      </c>
+      <c r="D244" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" t="s">
+        <v>105</v>
+      </c>
+      <c r="C245" t="s">
+        <v>233</v>
+      </c>
+      <c r="D245" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" t="s">
+        <v>122</v>
+      </c>
+      <c r="C246" t="s">
+        <v>250</v>
+      </c>
+      <c r="D246" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" t="s">
+        <v>101</v>
+      </c>
+      <c r="C247" t="s">
+        <v>229</v>
+      </c>
+      <c r="D247" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" t="s">
+        <v>130</v>
+      </c>
+      <c r="C248" t="s">
+        <v>258</v>
+      </c>
+      <c r="D248" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249" t="s">
+        <v>119</v>
+      </c>
+      <c r="C249" t="s">
+        <v>247</v>
+      </c>
+      <c r="D249" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" t="s">
+        <v>123</v>
+      </c>
+      <c r="C250" t="s">
+        <v>251</v>
+      </c>
+      <c r="D250" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" t="s">
+        <v>131</v>
+      </c>
+      <c r="C251" t="s">
+        <v>259</v>
+      </c>
+      <c r="D251" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" t="s">
+        <v>126</v>
+      </c>
+      <c r="C252" t="s">
+        <v>254</v>
+      </c>
+      <c r="D252" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" t="s">
+        <v>129</v>
+      </c>
+      <c r="C253" t="s">
+        <v>257</v>
+      </c>
+      <c r="D253" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254" t="s">
+        <v>128</v>
+      </c>
+      <c r="C254" t="s">
+        <v>256</v>
+      </c>
+      <c r="D254" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" t="s">
+        <v>127</v>
+      </c>
+      <c r="C255" t="s">
+        <v>255</v>
+      </c>
+      <c r="D255" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" t="s">
         <v>133</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C256" t="s">
         <v>261</v>
       </c>
-      <c r="D134" t="s">
-        <v>394</v>
+      <c r="D256" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" t="s">
+        <v>132</v>
+      </c>
+      <c r="C257" t="s">
+        <v>260</v>
+      </c>
+      <c r="D257" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/media/predicted_drugs.xlsx
+++ b/media/predicted_drugs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="510">
   <si>
     <t>RNA Sequence</t>
   </si>
@@ -820,7 +820,7 @@
     <t>0.9952</t>
   </si>
   <si>
-    <t>0.9936</t>
+    <t>0.9935</t>
   </si>
   <si>
     <t>0.9862</t>
@@ -877,16 +877,16 @@
     <t>0.8904</t>
   </si>
   <si>
-    <t>0.8886</t>
+    <t>0.8885</t>
   </si>
   <si>
     <t>0.8879</t>
   </si>
   <si>
-    <t>0.8835</t>
-  </si>
-  <si>
-    <t>0.8774</t>
+    <t>0.8834</t>
+  </si>
+  <si>
+    <t>0.8775</t>
   </si>
   <si>
     <t>0.8718</t>
@@ -901,7 +901,7 @@
     <t>0.8554</t>
   </si>
   <si>
-    <t>0.8523</t>
+    <t>0.8524</t>
   </si>
   <si>
     <t>0.849</t>
@@ -910,13 +910,13 @@
     <t>0.8489</t>
   </si>
   <si>
-    <t>0.8367</t>
+    <t>0.8368</t>
   </si>
   <si>
     <t>0.8317</t>
   </si>
   <si>
-    <t>0.8309</t>
+    <t>0.831</t>
   </si>
   <si>
     <t>0.8308</t>
@@ -934,13 +934,13 @@
     <t>0.8137</t>
   </si>
   <si>
-    <t>0.8071</t>
-  </si>
-  <si>
-    <t>0.8037</t>
-  </si>
-  <si>
-    <t>0.7944</t>
+    <t>0.807</t>
+  </si>
+  <si>
+    <t>0.8036</t>
+  </si>
+  <si>
+    <t>0.7945</t>
   </si>
   <si>
     <t>0.7847</t>
@@ -952,49 +952,49 @@
     <t>0.7689</t>
   </si>
   <si>
-    <t>0.7683</t>
-  </si>
-  <si>
-    <t>0.7654</t>
-  </si>
-  <si>
-    <t>0.7605</t>
-  </si>
-  <si>
-    <t>0.7444</t>
+    <t>0.7684</t>
+  </si>
+  <si>
+    <t>0.7653</t>
+  </si>
+  <si>
+    <t>0.7604</t>
+  </si>
+  <si>
+    <t>0.7445</t>
   </si>
   <si>
     <t>0.7439</t>
   </si>
   <si>
-    <t>0.7323</t>
-  </si>
-  <si>
-    <t>0.7265</t>
-  </si>
-  <si>
-    <t>0.7189</t>
-  </si>
-  <si>
-    <t>0.7171</t>
-  </si>
-  <si>
-    <t>0.7151</t>
-  </si>
-  <si>
-    <t>0.7145</t>
+    <t>0.7325</t>
+  </si>
+  <si>
+    <t>0.7266</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>0.7172</t>
+  </si>
+  <si>
+    <t>0.7152</t>
+  </si>
+  <si>
+    <t>0.7144</t>
   </si>
   <si>
     <t>0.7089</t>
   </si>
   <si>
-    <t>0.6976</t>
+    <t>0.6977</t>
   </si>
   <si>
     <t>0.6946</t>
   </si>
   <si>
-    <t>0.6695</t>
+    <t>0.6696</t>
   </si>
   <si>
     <t>0.662</t>
@@ -1003,13 +1003,13 @@
     <t>0.6561</t>
   </si>
   <si>
-    <t>0.6526</t>
+    <t>0.6528</t>
   </si>
   <si>
     <t>0.628</t>
   </si>
   <si>
-    <t>0.6197</t>
+    <t>0.6199</t>
   </si>
   <si>
     <t>0.5821</t>
@@ -1018,28 +1018,28 @@
     <t>0.5771</t>
   </si>
   <si>
-    <t>0.5715</t>
+    <t>0.5716</t>
   </si>
   <si>
     <t>0.5636</t>
   </si>
   <si>
-    <t>0.5456</t>
-  </si>
-  <si>
-    <t>0.5416</t>
-  </si>
-  <si>
-    <t>0.5378</t>
-  </si>
-  <si>
-    <t>0.5218</t>
+    <t>0.5455</t>
+  </si>
+  <si>
+    <t>0.5417</t>
+  </si>
+  <si>
+    <t>0.5381</t>
+  </si>
+  <si>
+    <t>0.5217</t>
   </si>
   <si>
     <t>0.507</t>
   </si>
   <si>
-    <t>0.5023</t>
+    <t>0.5025</t>
   </si>
   <si>
     <t>0.4968</t>
@@ -1054,13 +1054,13 @@
     <t>0.4721</t>
   </si>
   <si>
-    <t>0.4635</t>
-  </si>
-  <si>
-    <t>0.4632</t>
-  </si>
-  <si>
-    <t>0.4433</t>
+    <t>0.4634</t>
+  </si>
+  <si>
+    <t>0.4633</t>
+  </si>
+  <si>
+    <t>0.4434</t>
   </si>
   <si>
     <t>0.4411</t>
@@ -1072,19 +1072,19 @@
     <t>0.412</t>
   </si>
   <si>
-    <t>0.3985</t>
-  </si>
-  <si>
-    <t>0.3954</t>
-  </si>
-  <si>
-    <t>0.3894</t>
+    <t>0.3986</t>
+  </si>
+  <si>
+    <t>0.3955</t>
+  </si>
+  <si>
+    <t>0.3896</t>
   </si>
   <si>
     <t>0.3621</t>
   </si>
   <si>
-    <t>0.3592</t>
+    <t>0.3593</t>
   </si>
   <si>
     <t>0.3434</t>
@@ -1093,7 +1093,7 @@
     <t>0.3385</t>
   </si>
   <si>
-    <t>0.3339</t>
+    <t>0.334</t>
   </si>
   <si>
     <t>0.321</t>
@@ -1102,22 +1102,22 @@
     <t>0.3152</t>
   </si>
   <si>
-    <t>0.3119</t>
-  </si>
-  <si>
-    <t>0.3063</t>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t>0.3038</t>
-  </si>
-  <si>
-    <t>0.3023</t>
-  </si>
-  <si>
-    <t>0.2998</t>
+    <t>0.312</t>
+  </si>
+  <si>
+    <t>0.3065</t>
+  </si>
+  <si>
+    <t>0.3061</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>0.3025</t>
+  </si>
+  <si>
+    <t>0.2999</t>
   </si>
   <si>
     <t>0.2978</t>
@@ -1126,31 +1126,34 @@
     <t>0.2945</t>
   </si>
   <si>
-    <t>0.2778</t>
-  </si>
-  <si>
-    <t>0.2759</t>
+    <t>0.2779</t>
+  </si>
+  <si>
+    <t>0.276</t>
   </si>
   <si>
     <t>0.2758</t>
   </si>
   <si>
-    <t>0.2475</t>
+    <t>0.2477</t>
+  </si>
+  <si>
+    <t>0.2423</t>
   </si>
   <si>
     <t>0.2422</t>
   </si>
   <si>
-    <t>0.2397</t>
-  </si>
-  <si>
-    <t>0.2102</t>
-  </si>
-  <si>
-    <t>0.2033</t>
-  </si>
-  <si>
-    <t>0.1993</t>
+    <t>0.2399</t>
+  </si>
+  <si>
+    <t>0.2103</t>
+  </si>
+  <si>
+    <t>0.2034</t>
+  </si>
+  <si>
+    <t>0.1994</t>
   </si>
   <si>
     <t>0.1973</t>
@@ -1159,235 +1162,235 @@
     <t>0.1881</t>
   </si>
   <si>
-    <t>0.1708</t>
+    <t>0.1707</t>
   </si>
   <si>
     <t>0.1392</t>
   </si>
   <si>
-    <t>0.1275</t>
+    <t>0.1276</t>
   </si>
   <si>
     <t>0.1263</t>
   </si>
   <si>
-    <t>0.0931</t>
+    <t>0.0932</t>
+  </si>
+  <si>
+    <t>0.0871</t>
+  </si>
+  <si>
+    <t>0.0615</t>
+  </si>
+  <si>
+    <t>0.0468</t>
+  </si>
+  <si>
+    <t>0.9944</t>
+  </si>
+  <si>
+    <t>0.9923</t>
+  </si>
+  <si>
+    <t>0.9901</t>
+  </si>
+  <si>
+    <t>0.9894</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>0.9737</t>
+  </si>
+  <si>
+    <t>0.9718</t>
+  </si>
+  <si>
+    <t>0.9511</t>
+  </si>
+  <si>
+    <t>0.9506</t>
+  </si>
+  <si>
+    <t>0.9407</t>
+  </si>
+  <si>
+    <t>0.9243</t>
+  </si>
+  <si>
+    <t>0.9223</t>
+  </si>
+  <si>
+    <t>0.8845</t>
+  </si>
+  <si>
+    <t>0.8759</t>
+  </si>
+  <si>
+    <t>0.861</t>
+  </si>
+  <si>
+    <t>0.8596</t>
+  </si>
+  <si>
+    <t>0.8538</t>
+  </si>
+  <si>
+    <t>0.8193</t>
+  </si>
+  <si>
+    <t>0.7691</t>
+  </si>
+  <si>
+    <t>0.7576</t>
+  </si>
+  <si>
+    <t>0.7297</t>
+  </si>
+  <si>
+    <t>0.6899</t>
+  </si>
+  <si>
+    <t>0.6394</t>
+  </si>
+  <si>
+    <t>0.6026</t>
+  </si>
+  <si>
+    <t>0.5663</t>
+  </si>
+  <si>
+    <t>0.5628</t>
+  </si>
+  <si>
+    <t>0.5516</t>
+  </si>
+  <si>
+    <t>0.5415</t>
+  </si>
+  <si>
+    <t>0.537</t>
+  </si>
+  <si>
+    <t>0.5207</t>
+  </si>
+  <si>
+    <t>0.5165</t>
+  </si>
+  <si>
+    <t>0.4764</t>
+  </si>
+  <si>
+    <t>0.4741</t>
+  </si>
+  <si>
+    <t>0.4371</t>
+  </si>
+  <si>
+    <t>0.4266</t>
+  </si>
+  <si>
+    <t>0.4237</t>
+  </si>
+  <si>
+    <t>0.401</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.3425</t>
+  </si>
+  <si>
+    <t>0.3329</t>
+  </si>
+  <si>
+    <t>0.3101</t>
+  </si>
+  <si>
+    <t>0.2882</t>
+  </si>
+  <si>
+    <t>0.2865</t>
+  </si>
+  <si>
+    <t>0.2503</t>
+  </si>
+  <si>
+    <t>0.2378</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>0.2283</t>
+  </si>
+  <si>
+    <t>0.2252</t>
+  </si>
+  <si>
+    <t>0.217</t>
+  </si>
+  <si>
+    <t>0.2094</t>
+  </si>
+  <si>
+    <t>0.1995</t>
+  </si>
+  <si>
+    <t>0.1561</t>
+  </si>
+  <si>
+    <t>0.1377</t>
+  </si>
+  <si>
+    <t>0.1329</t>
+  </si>
+  <si>
+    <t>0.1288</t>
+  </si>
+  <si>
+    <t>0.1237</t>
+  </si>
+  <si>
+    <t>0.1218</t>
+  </si>
+  <si>
+    <t>0.1023</t>
+  </si>
+  <si>
+    <t>0.0934</t>
+  </si>
+  <si>
+    <t>0.0895</t>
   </si>
   <si>
     <t>0.087</t>
   </si>
   <si>
-    <t>0.0615</t>
-  </si>
-  <si>
-    <t>0.0468</t>
-  </si>
-  <si>
-    <t>0.9944</t>
-  </si>
-  <si>
-    <t>0.9923</t>
-  </si>
-  <si>
-    <t>0.9901</t>
-  </si>
-  <si>
-    <t>0.9894</t>
-  </si>
-  <si>
-    <t>0.974</t>
-  </si>
-  <si>
-    <t>0.9737</t>
-  </si>
-  <si>
-    <t>0.9717</t>
-  </si>
-  <si>
-    <t>0.9511</t>
-  </si>
-  <si>
-    <t>0.9506</t>
-  </si>
-  <si>
-    <t>0.9407</t>
-  </si>
-  <si>
-    <t>0.9243</t>
-  </si>
-  <si>
-    <t>0.9223</t>
-  </si>
-  <si>
-    <t>0.8844</t>
-  </si>
-  <si>
-    <t>0.8758</t>
-  </si>
-  <si>
-    <t>0.861</t>
-  </si>
-  <si>
-    <t>0.8596</t>
-  </si>
-  <si>
-    <t>0.8538</t>
-  </si>
-  <si>
-    <t>0.8192</t>
-  </si>
-  <si>
-    <t>0.769</t>
-  </si>
-  <si>
-    <t>0.7575</t>
-  </si>
-  <si>
-    <t>0.7296</t>
-  </si>
-  <si>
-    <t>0.6898</t>
-  </si>
-  <si>
-    <t>0.6393</t>
-  </si>
-  <si>
-    <t>0.6026</t>
-  </si>
-  <si>
-    <t>0.5663</t>
-  </si>
-  <si>
-    <t>0.5628</t>
-  </si>
-  <si>
-    <t>0.5516</t>
-  </si>
-  <si>
-    <t>0.5415</t>
-  </si>
-  <si>
-    <t>0.537</t>
-  </si>
-  <si>
-    <t>0.5206</t>
-  </si>
-  <si>
-    <t>0.5165</t>
-  </si>
-  <si>
-    <t>0.4764</t>
-  </si>
-  <si>
-    <t>0.4742</t>
-  </si>
-  <si>
-    <t>0.4371</t>
-  </si>
-  <si>
-    <t>0.4265</t>
-  </si>
-  <si>
-    <t>0.4238</t>
-  </si>
-  <si>
-    <t>0.401</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.3425</t>
-  </si>
-  <si>
-    <t>0.3329</t>
-  </si>
-  <si>
-    <t>0.3101</t>
-  </si>
-  <si>
-    <t>0.2881</t>
-  </si>
-  <si>
-    <t>0.2865</t>
-  </si>
-  <si>
-    <t>0.2503</t>
-  </si>
-  <si>
-    <t>0.2377</t>
-  </si>
-  <si>
-    <t>0.235</t>
-  </si>
-  <si>
-    <t>0.2282</t>
-  </si>
-  <si>
-    <t>0.2252</t>
-  </si>
-  <si>
-    <t>0.217</t>
-  </si>
-  <si>
-    <t>0.2093</t>
-  </si>
-  <si>
-    <t>0.1995</t>
-  </si>
-  <si>
-    <t>0.156</t>
-  </si>
-  <si>
-    <t>0.1377</t>
-  </si>
-  <si>
-    <t>0.1329</t>
-  </si>
-  <si>
-    <t>0.1287</t>
-  </si>
-  <si>
-    <t>0.1237</t>
-  </si>
-  <si>
-    <t>0.1218</t>
-  </si>
-  <si>
-    <t>0.1023</t>
-  </si>
-  <si>
-    <t>0.0934</t>
-  </si>
-  <si>
-    <t>0.0895</t>
-  </si>
-  <si>
-    <t>0.0871</t>
-  </si>
-  <si>
     <t>0.0626</t>
   </si>
   <si>
     <t>0.062</t>
   </si>
   <si>
-    <t>0.0539</t>
+    <t>0.054</t>
   </si>
   <si>
     <t>0.0505</t>
   </si>
   <si>
-    <t>0.0493</t>
-  </si>
-  <si>
-    <t>0.0464</t>
+    <t>0.0494</t>
+  </si>
+  <si>
+    <t>0.0465</t>
   </si>
   <si>
     <t>0.0446</t>
   </si>
   <si>
-    <t>0.0402</t>
+    <t>0.0403</t>
   </si>
   <si>
     <t>0.0393</t>
@@ -1402,7 +1405,7 @@
     <t>0.0331</t>
   </si>
   <si>
-    <t>0.0301</t>
+    <t>0.0302</t>
   </si>
   <si>
     <t>0.0259</t>
@@ -3511,7 +3514,7 @@
         <v>247</v>
       </c>
       <c r="D115" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3525,7 +3528,7 @@
         <v>248</v>
       </c>
       <c r="D116" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3539,7 +3542,7 @@
         <v>249</v>
       </c>
       <c r="D117" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3553,7 +3556,7 @@
         <v>250</v>
       </c>
       <c r="D118" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3567,7 +3570,7 @@
         <v>251</v>
       </c>
       <c r="D119" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3581,7 +3584,7 @@
         <v>252</v>
       </c>
       <c r="D120" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3595,7 +3598,7 @@
         <v>253</v>
       </c>
       <c r="D121" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3609,7 +3612,7 @@
         <v>254</v>
       </c>
       <c r="D122" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3623,7 +3626,7 @@
         <v>255</v>
       </c>
       <c r="D123" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3637,7 +3640,7 @@
         <v>256</v>
       </c>
       <c r="D124" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3651,7 +3654,7 @@
         <v>257</v>
       </c>
       <c r="D125" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3665,7 +3668,7 @@
         <v>258</v>
       </c>
       <c r="D126" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3679,7 +3682,7 @@
         <v>259</v>
       </c>
       <c r="D127" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3693,7 +3696,7 @@
         <v>260</v>
       </c>
       <c r="D128" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3707,7 +3710,7 @@
         <v>261</v>
       </c>
       <c r="D129" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3721,7 +3724,7 @@
         <v>134</v>
       </c>
       <c r="D130" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3735,7 +3738,7 @@
         <v>136</v>
       </c>
       <c r="D131" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3749,7 +3752,7 @@
         <v>135</v>
       </c>
       <c r="D132" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3763,7 +3766,7 @@
         <v>137</v>
       </c>
       <c r="D133" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3791,7 +3794,7 @@
         <v>140</v>
       </c>
       <c r="D135" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3805,7 +3808,7 @@
         <v>144</v>
       </c>
       <c r="D136" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3819,7 +3822,7 @@
         <v>138</v>
       </c>
       <c r="D137" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3833,7 +3836,7 @@
         <v>146</v>
       </c>
       <c r="D138" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3847,7 +3850,7 @@
         <v>141</v>
       </c>
       <c r="D139" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3861,7 +3864,7 @@
         <v>142</v>
       </c>
       <c r="D140" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3875,7 +3878,7 @@
         <v>149</v>
       </c>
       <c r="D141" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3889,7 +3892,7 @@
         <v>147</v>
       </c>
       <c r="D142" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3903,7 +3906,7 @@
         <v>150</v>
       </c>
       <c r="D143" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3917,7 +3920,7 @@
         <v>143</v>
       </c>
       <c r="D144" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3931,7 +3934,7 @@
         <v>152</v>
       </c>
       <c r="D145" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3945,7 +3948,7 @@
         <v>148</v>
       </c>
       <c r="D146" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3959,7 +3962,7 @@
         <v>153</v>
       </c>
       <c r="D147" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3973,7 +3976,7 @@
         <v>145</v>
       </c>
       <c r="D148" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3987,7 +3990,7 @@
         <v>154</v>
       </c>
       <c r="D149" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4001,7 +4004,7 @@
         <v>156</v>
       </c>
       <c r="D150" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4015,7 +4018,7 @@
         <v>157</v>
       </c>
       <c r="D151" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4029,7 +4032,7 @@
         <v>151</v>
       </c>
       <c r="D152" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4043,7 +4046,7 @@
         <v>160</v>
       </c>
       <c r="D153" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4057,7 +4060,7 @@
         <v>176</v>
       </c>
       <c r="D154" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4071,7 +4074,7 @@
         <v>173</v>
       </c>
       <c r="D155" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4085,7 +4088,7 @@
         <v>155</v>
       </c>
       <c r="D156" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4099,7 +4102,7 @@
         <v>183</v>
       </c>
       <c r="D157" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4113,7 +4116,7 @@
         <v>166</v>
       </c>
       <c r="D158" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4127,7 +4130,7 @@
         <v>159</v>
       </c>
       <c r="D159" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4141,7 +4144,7 @@
         <v>158</v>
       </c>
       <c r="D160" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4155,7 +4158,7 @@
         <v>180</v>
       </c>
       <c r="D161" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4169,7 +4172,7 @@
         <v>167</v>
       </c>
       <c r="D162" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4183,7 +4186,7 @@
         <v>199</v>
       </c>
       <c r="D163" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4197,7 +4200,7 @@
         <v>171</v>
       </c>
       <c r="D164" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4211,7 +4214,7 @@
         <v>168</v>
       </c>
       <c r="D165" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4225,7 +4228,7 @@
         <v>182</v>
       </c>
       <c r="D166" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4239,7 +4242,7 @@
         <v>194</v>
       </c>
       <c r="D167" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4253,7 +4256,7 @@
         <v>174</v>
       </c>
       <c r="D168" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4281,7 +4284,7 @@
         <v>162</v>
       </c>
       <c r="D170" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4295,7 +4298,7 @@
         <v>177</v>
       </c>
       <c r="D171" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4309,7 +4312,7 @@
         <v>170</v>
       </c>
       <c r="D172" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4323,7 +4326,7 @@
         <v>193</v>
       </c>
       <c r="D173" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4337,7 +4340,7 @@
         <v>165</v>
       </c>
       <c r="D174" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4351,7 +4354,7 @@
         <v>185</v>
       </c>
       <c r="D175" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4365,7 +4368,7 @@
         <v>175</v>
       </c>
       <c r="D176" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4379,7 +4382,7 @@
         <v>169</v>
       </c>
       <c r="D177" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4393,7 +4396,7 @@
         <v>164</v>
       </c>
       <c r="D178" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4407,7 +4410,7 @@
         <v>179</v>
       </c>
       <c r="D179" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4421,7 +4424,7 @@
         <v>186</v>
       </c>
       <c r="D180" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4435,7 +4438,7 @@
         <v>188</v>
       </c>
       <c r="D181" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4449,7 +4452,7 @@
         <v>163</v>
       </c>
       <c r="D182" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4463,7 +4466,7 @@
         <v>197</v>
       </c>
       <c r="D183" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4477,7 +4480,7 @@
         <v>196</v>
       </c>
       <c r="D184" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4491,7 +4494,7 @@
         <v>200</v>
       </c>
       <c r="D185" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4505,7 +4508,7 @@
         <v>190</v>
       </c>
       <c r="D186" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4519,7 +4522,7 @@
         <v>201</v>
       </c>
       <c r="D187" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4533,7 +4536,7 @@
         <v>181</v>
       </c>
       <c r="D188" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4547,7 +4550,7 @@
         <v>178</v>
       </c>
       <c r="D189" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4561,7 +4564,7 @@
         <v>184</v>
       </c>
       <c r="D190" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4575,7 +4578,7 @@
         <v>192</v>
       </c>
       <c r="D191" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4589,7 +4592,7 @@
         <v>189</v>
       </c>
       <c r="D192" t="s">
-        <v>449</v>
+        <v>387</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4603,7 +4606,7 @@
         <v>172</v>
       </c>
       <c r="D193" t="s">
-        <v>386</v>
+        <v>450</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4617,7 +4620,7 @@
         <v>214</v>
       </c>
       <c r="D194" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4631,7 +4634,7 @@
         <v>187</v>
       </c>
       <c r="D195" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4645,7 +4648,7 @@
         <v>226</v>
       </c>
       <c r="D196" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4653,13 +4656,13 @@
         <v>5</v>
       </c>
       <c r="B197" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C197" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D197" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4667,13 +4670,13 @@
         <v>5</v>
       </c>
       <c r="B198" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C198" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D198" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4687,7 +4690,7 @@
         <v>203</v>
       </c>
       <c r="D199" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4701,7 +4704,7 @@
         <v>191</v>
       </c>
       <c r="D200" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4715,7 +4718,7 @@
         <v>209</v>
       </c>
       <c r="D201" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4729,7 +4732,7 @@
         <v>204</v>
       </c>
       <c r="D202" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4743,7 +4746,7 @@
         <v>205</v>
       </c>
       <c r="D203" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4757,7 +4760,7 @@
         <v>195</v>
       </c>
       <c r="D204" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4771,7 +4774,7 @@
         <v>206</v>
       </c>
       <c r="D205" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4785,7 +4788,7 @@
         <v>208</v>
       </c>
       <c r="D206" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4799,7 +4802,7 @@
         <v>246</v>
       </c>
       <c r="D207" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4813,7 +4816,7 @@
         <v>207</v>
       </c>
       <c r="D208" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4827,7 +4830,7 @@
         <v>216</v>
       </c>
       <c r="D209" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4841,7 +4844,7 @@
         <v>210</v>
       </c>
       <c r="D210" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4855,7 +4858,7 @@
         <v>212</v>
       </c>
       <c r="D211" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4869,7 +4872,7 @@
         <v>213</v>
       </c>
       <c r="D212" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4883,7 +4886,7 @@
         <v>220</v>
       </c>
       <c r="D213" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4897,7 +4900,7 @@
         <v>215</v>
       </c>
       <c r="D214" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4911,7 +4914,7 @@
         <v>211</v>
       </c>
       <c r="D215" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4925,7 +4928,7 @@
         <v>242</v>
       </c>
       <c r="D216" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4939,7 +4942,7 @@
         <v>219</v>
       </c>
       <c r="D217" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4953,7 +4956,7 @@
         <v>238</v>
       </c>
       <c r="D218" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4967,7 +4970,7 @@
         <v>223</v>
       </c>
       <c r="D219" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4981,7 +4984,7 @@
         <v>252</v>
       </c>
       <c r="D220" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4995,7 +4998,7 @@
         <v>225</v>
       </c>
       <c r="D221" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5009,7 +5012,7 @@
         <v>244</v>
       </c>
       <c r="D222" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5023,7 +5026,7 @@
         <v>228</v>
       </c>
       <c r="D223" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5037,7 +5040,7 @@
         <v>243</v>
       </c>
       <c r="D224" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5051,7 +5054,7 @@
         <v>236</v>
       </c>
       <c r="D225" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5065,7 +5068,7 @@
         <v>241</v>
       </c>
       <c r="D226" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5079,7 +5082,7 @@
         <v>237</v>
       </c>
       <c r="D227" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5093,7 +5096,7 @@
         <v>224</v>
       </c>
       <c r="D228" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5107,7 +5110,7 @@
         <v>222</v>
       </c>
       <c r="D229" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5121,7 +5124,7 @@
         <v>227</v>
       </c>
       <c r="D230" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5135,7 +5138,7 @@
         <v>234</v>
       </c>
       <c r="D231" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5149,7 +5152,7 @@
         <v>235</v>
       </c>
       <c r="D232" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5163,7 +5166,7 @@
         <v>218</v>
       </c>
       <c r="D233" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5177,7 +5180,7 @@
         <v>239</v>
       </c>
       <c r="D234" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5191,7 +5194,7 @@
         <v>249</v>
       </c>
       <c r="D235" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5205,7 +5208,7 @@
         <v>231</v>
       </c>
       <c r="D236" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5219,7 +5222,7 @@
         <v>217</v>
       </c>
       <c r="D237" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5233,7 +5236,7 @@
         <v>253</v>
       </c>
       <c r="D238" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5247,7 +5250,7 @@
         <v>230</v>
       </c>
       <c r="D239" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5261,7 +5264,7 @@
         <v>248</v>
       </c>
       <c r="D240" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5275,7 +5278,7 @@
         <v>221</v>
       </c>
       <c r="D241" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5289,7 +5292,7 @@
         <v>232</v>
       </c>
       <c r="D242" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5303,7 +5306,7 @@
         <v>245</v>
       </c>
       <c r="D243" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5317,7 +5320,7 @@
         <v>240</v>
       </c>
       <c r="D244" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5331,7 +5334,7 @@
         <v>233</v>
       </c>
       <c r="D245" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5345,7 +5348,7 @@
         <v>250</v>
       </c>
       <c r="D246" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5359,7 +5362,7 @@
         <v>229</v>
       </c>
       <c r="D247" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5373,7 +5376,7 @@
         <v>258</v>
       </c>
       <c r="D248" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5387,7 +5390,7 @@
         <v>247</v>
       </c>
       <c r="D249" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5401,7 +5404,7 @@
         <v>251</v>
       </c>
       <c r="D250" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5415,7 +5418,7 @@
         <v>259</v>
       </c>
       <c r="D251" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5429,7 +5432,7 @@
         <v>254</v>
       </c>
       <c r="D252" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5443,7 +5446,7 @@
         <v>257</v>
       </c>
       <c r="D253" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5457,7 +5460,7 @@
         <v>256</v>
       </c>
       <c r="D254" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5471,7 +5474,7 @@
         <v>255</v>
       </c>
       <c r="D255" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5485,7 +5488,7 @@
         <v>261</v>
       </c>
       <c r="D256" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5499,7 +5502,7 @@
         <v>260</v>
       </c>
       <c r="D257" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
